--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -5166,7 +5166,7 @@
         <v>1.6</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.96</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT30" t="n">
         <v>1.6</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT37" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU41" t="n">
         <v>0.92</v>
@@ -10441,7 +10441,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT49" t="n">
         <v>0.8</v>
@@ -10706,7 +10706,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5121033</v>
+        <v>5121034</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -10726,159 +10726,159 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Santiago Morning</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>2</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['7', '39']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="Q51" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" t="n">
         <v>4</v>
       </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
       <c r="S51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T51" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="U51" t="n">
         <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W51" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X51" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AA51" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AB51" t="n">
         <v>1.05</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD51" t="n">
         <v>3.15</v>
       </c>
       <c r="AE51" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AH51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ51" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI51" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO51" t="n">
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
         <v>1.25</v>
       </c>
-      <c r="AP51" t="n">
+      <c r="AT51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC51" t="n">
         <v>1.72</v>
       </c>
-      <c r="AQ51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>1.9</v>
-      </c>
       <c r="BD51" t="n">
         <v>0</v>
       </c>
@@ -10886,22 +10886,22 @@
         <v>0</v>
       </c>
       <c r="BF51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH51" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BI51" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BJ51" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BK51" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -10909,7 +10909,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>5121034</v>
+        <v>5121033</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -10929,140 +10929,140 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Deportes Santa Cruz</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Santiago Morning</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>2</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['7', '39']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T52" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="U52" t="n">
         <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W52" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y52" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AA52" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AB52" t="n">
         <v>1.05</v>
       </c>
       <c r="AC52" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD52" t="n">
         <v>3.15</v>
       </c>
       <c r="AE52" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG52" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK52" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AL52" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AM52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
         <v>1.8</v>
       </c>
-      <c r="AN52" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AU52" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AV52" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="AW52" t="n">
-        <v>2.51</v>
+        <v>2.77</v>
       </c>
       <c r="AX52" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="BC52" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="BD52" t="n">
         <v>0</v>
@@ -11089,22 +11089,22 @@
         <v>0</v>
       </c>
       <c r="BF52" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH52" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK52" t="n">
         <v>12</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -13541,6 +13541,209 @@
       </c>
       <c r="BK64" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5121051</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45037.89583333334</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10</v>
+      </c>
+      <c r="S65" t="n">
+        <v>15</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT4" t="n">
         <v>1.6</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>1.4</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
         <v>1.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU19" t="n">
         <v>1.87</v>
@@ -5369,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.98</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>1.5</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU32" t="n">
         <v>2.19</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU33" t="n">
         <v>1.66</v>
@@ -7602,7 +7602,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT42" t="n">
         <v>2</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT45" t="n">
         <v>1.75</v>
@@ -9835,7 +9835,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.87</v>
@@ -10241,7 +10241,7 @@
         <v>1.75</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.98</v>
@@ -10444,7 +10444,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.87</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
         <v>0.25</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>1.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.91</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AU64" t="n">
         <v>1.94</v>
@@ -13744,6 +13744,615 @@
       </c>
       <c r="BK65" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5121048</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45038.54166666666</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['47', '59']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5121049</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45038.5625</v>
+      </c>
+      <c r="F67" t="n">
+        <v>9</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['27', '56', '59']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>10</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7</v>
+      </c>
+      <c r="S67" t="n">
+        <v>17</v>
+      </c>
+      <c r="T67" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>5121173</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45038.72916666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['27', '89']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>7</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>11</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.67</v>
@@ -2527,7 +2527,7 @@
         <v>2.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3339,7 +3339,7 @@
         <v>2.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT19" t="n">
         <v>1.8</v>
@@ -4760,7 +4760,7 @@
         <v>1.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU21" t="n">
         <v>2.35</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>1.75</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0.4</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>0.95</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU31" t="n">
         <v>1.25</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.8</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT34" t="n">
         <v>1.33</v>
@@ -8008,7 +8008,7 @@
         <v>2.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.99</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6</v>
@@ -8414,7 +8414,7 @@
         <v>2.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>2.2</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>1.5</v>
@@ -10238,7 +10238,7 @@
         <v>0.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
         <v>1.5</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT50" t="n">
         <v>0.6</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.61</v>
@@ -11053,7 +11053,7 @@
         <v>1.8</v>
       </c>
       <c r="AT52" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.76</v>
@@ -11256,7 +11256,7 @@
         <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU53" t="n">
         <v>1.61</v>
@@ -12471,7 +12471,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>0.6</v>
@@ -13286,7 +13286,7 @@
         <v>1.8</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.65</v>
@@ -14353,6 +14353,818 @@
       </c>
       <c r="BK68" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5121046</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F69" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>12</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>17</v>
+      </c>
+      <c r="T69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5121047</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>8</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8</v>
+      </c>
+      <c r="S70" t="n">
+        <v>16</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>5121052</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Santiago Morning</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['36', '74']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['13', '68']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>8</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>5121050</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45040.79166666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['35', '74']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>11</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK72"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>1.8</v>
@@ -1715,7 +1715,7 @@
         <v>1.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.4</v>
@@ -9632,7 +9632,7 @@
         <v>0.4</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU45" t="n">
         <v>1.12</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1.33</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT57" t="n">
         <v>1.5</v>
@@ -12677,7 +12677,7 @@
         <v>3</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU60" t="n">
         <v>1.42</v>
@@ -15165,6 +15165,209 @@
       </c>
       <c r="BK72" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5121058</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45044.66666666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['73', '78']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7</v>
+      </c>
+      <c r="S73" t="n">
+        <v>12</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.4</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>2.17</v>
@@ -8617,7 +8617,7 @@
         <v>1.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.8</v>
@@ -12880,7 +12880,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.65</v>
@@ -15368,6 +15368,209 @@
       </c>
       <c r="BK73" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>5121061</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['13', '34', '40', '42', '45', '90+2']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>7</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9</v>
+      </c>
+      <c r="T74" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT6" t="n">
         <v>1.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.2</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT13" t="n">
         <v>1.5</v>
@@ -3339,7 +3339,7 @@
         <v>2.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>2.18</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU27" t="n">
         <v>2.42</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>1.5</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.7</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT45" t="n">
         <v>1.4</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>1.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU51" t="n">
         <v>1.61</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU58" t="n">
         <v>1.03</v>
@@ -13080,10 +13080,10 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT62" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>2</v>
       </c>
       <c r="AU62" t="n">
         <v>1.97</v>
@@ -13892,7 +13892,7 @@
         <v>0.8</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>0.67</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT68" t="n">
         <v>1.8</v>
@@ -14910,7 +14910,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU71" t="n">
         <v>2.05</v>
@@ -15571,6 +15571,615 @@
       </c>
       <c r="BK74" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5121059</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45046.54166666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>8</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5121185</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45046.6875</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Santiago Morning</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['58', '90+6']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>6</v>
+      </c>
+      <c r="R76" t="n">
+        <v>8</v>
+      </c>
+      <c r="S76" t="n">
+        <v>14</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5121056</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45046.89583333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>7</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK77"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
         <v>1.4</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
         <v>0.67</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.87</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.6</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -6181,7 +6181,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6993,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU32" t="n">
         <v>2.19</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT44" t="n">
         <v>1.4</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11862,7 +11862,7 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.94</v>
@@ -14301,7 +14301,7 @@
         <v>0.83</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.09</v>
@@ -16180,6 +16180,615 @@
       </c>
       <c r="BK77" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5121055</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45049.79166666666</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>9</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5121060</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45049.89583333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>5</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['16', '47', '49', '61', '79']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>10</v>
+      </c>
+      <c r="S79" t="n">
+        <v>15</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5121054</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45049.89583333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -3339,7 +3339,7 @@
         <v>2.6</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>3</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT45" t="n">
         <v>1.4</v>
@@ -10850,7 +10850,7 @@
         <v>1.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.61</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT58" t="n">
         <v>1.4</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT68" t="n">
         <v>1.67</v>
@@ -14910,7 +14910,7 @@
         <v>1.6</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU71" t="n">
         <v>2.05</v>
@@ -15719,7 +15719,7 @@
         <v>2</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT75" t="n">
         <v>1.6</v>
@@ -15925,7 +15925,7 @@
         <v>1.83</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.93</v>
@@ -16789,6 +16789,209 @@
       </c>
       <c r="BK80" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>5121068</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45055.54166666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Santiago Morning</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT6" t="n">
         <v>1.4</v>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -3948,7 +3948,7 @@
         <v>1.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>2.18</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4760,7 +4760,7 @@
         <v>1.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>2.35</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.25</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -9429,7 +9429,7 @@
         <v>1.8</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU44" t="n">
         <v>1.84</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -11253,10 +11253,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.61</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU58" t="n">
         <v>1.03</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT62" t="n">
         <v>1.6</v>
@@ -14095,7 +14095,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.89</v>
@@ -15922,7 +15922,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT76" t="n">
         <v>0.33</v>
@@ -16128,7 +16128,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.83</v>
@@ -16853,13 +16853,13 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R81" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S81" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T81" t="n">
         <v>3</v>
@@ -16976,22 +16976,428 @@
         <v>0</v>
       </c>
       <c r="BF81" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG81" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH81" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI81" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ81" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK81" t="n">
-        <v>-1</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5121062</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45056.6875</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>6</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5121066</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45056.83333333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>11</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['22', '65']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>8</v>
+      </c>
+      <c r="T83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK83"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>1.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT10" t="n">
         <v>0.75</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.6</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.6</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>1.4</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>1.67</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>2.07</v>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU23" t="n">
         <v>1.96</v>
@@ -5369,7 +5369,7 @@
         <v>1.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU24" t="n">
         <v>1.98</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT25" t="n">
         <v>1.4</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT27" t="n">
         <v>1.6</v>
@@ -6181,7 +6181,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT32" t="n">
         <v>1.67</v>
@@ -7196,7 +7196,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.66</v>
@@ -7602,7 +7602,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.85</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT39" t="n">
         <v>1.25</v>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU41" t="n">
         <v>0.92</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -9835,7 +9835,7 @@
         <v>1.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.87</v>
@@ -10241,7 +10241,7 @@
         <v>1.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU48" t="n">
         <v>1.98</v>
@@ -10444,7 +10444,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.87</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.94</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0.33</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
@@ -11862,10 +11862,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.91</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12471,10 +12471,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -13692,7 +13692,7 @@
         <v>2.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -13895,7 +13895,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.83</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.77</v>
@@ -14501,7 +14501,7 @@
         <v>0.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.5</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>1.25</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT72" t="n">
         <v>0.75</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>1.91</v>
@@ -17398,6 +17398,1021 @@
       </c>
       <c r="BK83" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5121067</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45057.79166666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['58', '66', '83']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5121069</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45057.79166666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['21', '45', '75', '90+7']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['28', '63']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>10</v>
+      </c>
+      <c r="S85" t="n">
+        <v>13</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V85" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5121064</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45057.79166666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>11</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['17', '59', '65']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>8</v>
+      </c>
+      <c r="T86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5121063</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45057.79166666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>11</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['17', '59']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>6</v>
+      </c>
+      <c r="S87" t="n">
+        <v>11</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5121065</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45058.875</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['73', '80']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>6</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="n">
+        <v>3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V88" t="n">
+        <v>4</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK88"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -4151,7 +4151,7 @@
         <v>1.71</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>2.15</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.71</v>
@@ -5978,7 +5978,7 @@
         <v>2.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU27" t="n">
         <v>2.42</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1.67</v>
@@ -7399,7 +7399,7 @@
         <v>1.6</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU34" t="n">
         <v>1.97</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1.71</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.33</v>
@@ -9023,7 +9023,7 @@
         <v>1.6</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.7</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>1.17</v>
@@ -10038,7 +10038,7 @@
         <v>1.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT50" t="n">
         <v>0.5</v>
@@ -13083,7 +13083,7 @@
         <v>1.71</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.97</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.25</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
         <v>1.67</v>
@@ -14501,7 +14501,7 @@
         <v>0.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT69" t="n">
         <v>0.5</v>
@@ -15722,7 +15722,7 @@
         <v>1.14</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>1.05</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0</v>
@@ -17462,13 +17462,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R84" t="n">
         <v>4</v>
       </c>
       <c r="S84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T84" t="n">
         <v>2.6</v>
@@ -17668,10 +17668,10 @@
         <v>3</v>
       </c>
       <c r="R85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T85" t="n">
         <v>2.6</v>
@@ -18155,7 +18155,7 @@
         <v>1.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
@@ -18413,6 +18413,615 @@
       </c>
       <c r="BK88" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5121077</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45059.91666666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['50', '71']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V89" t="n">
+        <v>4</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5121075</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45061.6875</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Santiago Morning</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['12', '69']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>7</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>8</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5121076</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45061.83333333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['85', '90+3']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>8</v>
+      </c>
+      <c r="S91" t="n">
+        <v>12</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.17</v>
@@ -2527,7 +2527,7 @@
         <v>2.6</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>2.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT13" t="n">
         <v>1.71</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT14" t="n">
         <v>0.33</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT17" t="n">
         <v>1.17</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU19" t="n">
         <v>1.87</v>
@@ -5166,7 +5166,7 @@
         <v>1.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.96</v>
@@ -5572,7 +5572,7 @@
         <v>0.8</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.33</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT28" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>1.14</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU29" t="n">
         <v>0.95</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU32" t="n">
         <v>2.19</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.99</v>
@@ -8414,7 +8414,7 @@
         <v>2.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU39" t="n">
         <v>2.2</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU41" t="n">
         <v>0.92</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT42" t="n">
         <v>1.33</v>
@@ -9632,7 +9632,7 @@
         <v>1.14</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU45" t="n">
         <v>1.12</v>
@@ -10238,7 +10238,7 @@
         <v>0.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT48" t="n">
         <v>1.71</v>
@@ -10441,7 +10441,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.76</v>
@@ -12674,10 +12674,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU60" t="n">
         <v>1.42</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.65</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU64" t="n">
         <v>1.94</v>
@@ -13689,10 +13689,10 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -13892,7 +13892,7 @@
         <v>0.8</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>1.14</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU68" t="n">
         <v>1.09</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -14907,7 +14907,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT71" t="n">
         <v>0.33</v>
@@ -15113,7 +15113,7 @@
         <v>0.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.68</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU73" t="n">
         <v>1.79</v>
@@ -15516,7 +15516,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AT74" t="n">
         <v>1.33</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT77" t="n">
         <v>1.17</v>
@@ -16328,10 +16328,10 @@
         <v>1.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU78" t="n">
         <v>1.65</v>
@@ -17549,7 +17549,7 @@
         <v>2.14</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU84" t="n">
         <v>1.86</v>
@@ -19022,6 +19022,1021 @@
       </c>
       <c r="BK91" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5121072</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45062.6875</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>7</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>8</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5121073</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45062.6875</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>9</v>
+      </c>
+      <c r="S93" t="n">
+        <v>13</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2</v>
+      </c>
+      <c r="V93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5121074</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45062.79166666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>5</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['29', '43', '52', '82']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>8</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5121070</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45062.89583333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['24', '36']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['35', '48']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7</v>
+      </c>
+      <c r="S95" t="n">
+        <v>10</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5121071</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45062.89583333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>3</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['25', '64', '90+11']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['15', '39']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT10" t="n">
         <v>1.2</v>
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5121001</v>
+        <v>5121005</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3824,19 +3824,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
@@ -3845,119 +3845,119 @@
         <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['9', '42', '64']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>5</v>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>['36', '77', '85']</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>['5', '75']</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>4</v>
       </c>
-      <c r="R17" t="n">
-        <v>6</v>
-      </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>1.06</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.26</v>
+        <v>2.37</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="AE17" t="n">
-        <v>3.11</v>
+        <v>2.83</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AO17" t="n">
         <v>1.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.17</v>
+        <v>2.15</v>
       </c>
       <c r="AX17" t="n">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BD17" t="n">
         <v>0</v>
@@ -3987,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="BG17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK17" t="n">
         <v>8</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5121005</v>
+        <v>5121001</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4027,19 +4027,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -4048,119 +4048,119 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['36', '77', '85']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['5', '75']</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>4</v>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>['9', '42', '64']</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>['49']</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
         <v>1.06</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="AE18" t="n">
-        <v>2.83</v>
+        <v>3.11</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AO18" t="n">
         <v>1.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.15</v>
+        <v>4.17</v>
       </c>
       <c r="AX18" t="n">
         <v>0</v>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
         <v>0</v>
@@ -4190,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="BG18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -6240,7 +6240,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>5121007</v>
+        <v>5121013</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -6278,122 +6278,122 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U29" t="n">
         <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.99</v>
+        <v>2.88</v>
       </c>
       <c r="AE29" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="AF29" t="n">
         <v>1.06</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>9.35</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AJ29" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK29" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AN29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO29" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO29" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AP29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.14</v>
+        <v>2.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.95</v>
+        <v>2.17</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.95</v>
+        <v>3.56</v>
       </c>
       <c r="AX29" t="n">
         <v>0</v>
@@ -6420,22 +6420,22 @@
         <v>0</v>
       </c>
       <c r="BF29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH29" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK29" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -6443,7 +6443,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>5121013</v>
+        <v>5121007</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -6463,12 +6463,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -6481,17 +6481,17 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -6500,103 +6500,103 @@
         </is>
       </c>
       <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>9</v>
-      </c>
       <c r="T30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U30" t="n">
         <v>1.91</v>
       </c>
       <c r="V30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="W30" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="AD30" t="n">
-        <v>2.88</v>
+        <v>2.99</v>
       </c>
       <c r="AE30" t="n">
-        <v>3.1</v>
+        <v>2.79</v>
       </c>
       <c r="AF30" t="n">
         <v>1.06</v>
       </c>
       <c r="AG30" t="n">
-        <v>9.35</v>
+        <v>7</v>
       </c>
       <c r="AH30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK30" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AL30" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.67</v>
+        <v>1.14</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU30" t="n">
-        <v>2.17</v>
+        <v>0.95</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.56</v>
+        <v>0.95</v>
       </c>
       <c r="AX30" t="n">
         <v>0</v>
@@ -6623,22 +6623,22 @@
         <v>0</v>
       </c>
       <c r="BF30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI30" t="n">
         <v>3</v>
       </c>
-      <c r="BH30" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>1.2</v>
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5121029</v>
+        <v>5121026</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,140 +8493,140 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Santiago Morning</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>['59', '75', '90+1']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>['23']</t>
-        </is>
-      </c>
       <c r="Q40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U40" t="n">
         <v>1.95</v>
       </c>
       <c r="V40" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="W40" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X40" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL40" t="n">
         <v>2.2</v>
       </c>
-      <c r="AD40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1.85</v>
-      </c>
       <c r="AM40" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="AO40" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="AQ40" t="n">
         <v>3</v>
       </c>
       <c r="AR40" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
-        <v>1.8</v>
+        <v>0.92</v>
       </c>
       <c r="AV40" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.16</v>
+        <v>2.04</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BD40" t="n">
         <v>0</v>
@@ -8653,22 +8653,22 @@
         <v>0</v>
       </c>
       <c r="BF40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ40" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BK40" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>5121026</v>
+        <v>5121029</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8696,140 +8696,140 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Santiago Morning</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
         <v>3</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>['59', '75', '90+1']</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>9</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>11</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.5</v>
       </c>
       <c r="U41" t="n">
         <v>1.95</v>
       </c>
       <c r="V41" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="W41" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="X41" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AA41" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AB41" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AD41" t="n">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="AE41" t="n">
-        <v>4.5</v>
+        <v>2.95</v>
       </c>
       <c r="AF41" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG41" t="n">
-        <v>7.7</v>
+        <v>8.65</v>
       </c>
       <c r="AH41" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AI41" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="AJ41" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AK41" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AL41" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AM41" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AN41" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="AQ41" t="n">
         <v>3</v>
       </c>
       <c r="AR41" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
-        <v>0.92</v>
+        <v>1.8</v>
       </c>
       <c r="AV41" t="n">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.04</v>
+        <v>3.16</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="BC41" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BD41" t="n">
         <v>0</v>
@@ -8856,22 +8856,22 @@
         <v>0</v>
       </c>
       <c r="BF41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG41" t="n">
         <v>7</v>
       </c>
-      <c r="BG41" t="n">
-        <v>3</v>
-      </c>
       <c r="BH41" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ41" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BK41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -8879,7 +8879,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>5121028</v>
+        <v>5121022</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -8899,12 +8899,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -8920,161 +8920,161 @@
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>10</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG42" t="n">
         <v>3</v>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>['50']</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>['4', '48']</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>15</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>18</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U42" t="n">
-        <v>2</v>
-      </c>
-      <c r="V42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W42" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X42" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>7</v>
-      </c>
       <c r="BH42" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BI42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ42" t="n">
         <v>17</v>
       </c>
       <c r="BK42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>5121022</v>
+        <v>5121028</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,12 +9102,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -9123,161 +9123,161 @@
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['90+5']</t>
+          <t>['50']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['45']</t>
+          <t>['4', '48']</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD43" t="n">
         <v>3.1</v>
       </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
+      <c r="AE43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE43" t="n">
         <v>3.5</v>
       </c>
-      <c r="W43" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC43" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>2.07</v>
-      </c>
       <c r="BF43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH43" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ43" t="n">
         <v>17</v>
       </c>
       <c r="BK43" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>5121025</v>
+        <v>5121027</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,140 +9305,140 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['37']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['30', '90+5']</t>
         </is>
       </c>
       <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7</v>
+      </c>
+      <c r="S44" t="n">
         <v>11</v>
       </c>
-      <c r="R44" t="n">
+      <c r="T44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD44" t="n">
         <v>3</v>
       </c>
-      <c r="S44" t="n">
-        <v>14</v>
-      </c>
-      <c r="T44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2</v>
-      </c>
-      <c r="V44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X44" t="n">
+      <c r="AE44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI44" t="n">
         <v>2.6</v>
       </c>
-      <c r="Y44" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>3.05</v>
-      </c>
       <c r="AJ44" t="n">
-        <v>2.06</v>
+        <v>2.45</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="AO44" t="n">
         <v>1.32</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AT44" t="n">
         <v>1.17</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.7</v>
+        <v>2.17</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -9450,37 +9450,37 @@
         <v>0</v>
       </c>
       <c r="BA44" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BC44" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BD44" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BE44" t="n">
         <v>0</v>
       </c>
       <c r="BF44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK44" t="n">
         <v>7</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -9488,7 +9488,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>5121027</v>
+        <v>5121025</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -9508,140 +9508,140 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Deportes Santa Cruz</t>
+          <t>San Luis</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>11</v>
+      </c>
+      <c r="R45" t="n">
         <v>3</v>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>['37']</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>['30', '90+5']</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="S45" t="n">
+        <v>14</v>
+      </c>
+      <c r="T45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA45" t="n">
         <v>7</v>
       </c>
-      <c r="S45" t="n">
-        <v>11</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V45" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X45" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>7.75</v>
-      </c>
       <c r="AB45" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.99</v>
+        <v>2.32</v>
       </c>
       <c r="AD45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AE45" t="n">
-        <v>3.5</v>
+        <v>2.62</v>
       </c>
       <c r="AF45" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG45" t="n">
-        <v>7.8</v>
+        <v>9.65</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AI45" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="AJ45" t="n">
-        <v>2.45</v>
+        <v>2.06</v>
       </c>
       <c r="AK45" t="n">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="AL45" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AM45" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AN45" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="AO45" t="n">
         <v>1.32</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AS45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT45" t="n">
         <v>1.14</v>
       </c>
-      <c r="AT45" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AU45" t="n">
-        <v>1.12</v>
+        <v>1.84</v>
       </c>
       <c r="AV45" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="AW45" t="n">
-        <v>2.17</v>
+        <v>3.7</v>
       </c>
       <c r="AX45" t="n">
         <v>0</v>
@@ -9653,37 +9653,37 @@
         <v>0</v>
       </c>
       <c r="BA45" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BB45" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BD45" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BE45" t="n">
         <v>0</v>
       </c>
       <c r="BF45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI45" t="n">
         <v>3</v>
       </c>
-      <c r="BG45" t="n">
+      <c r="BJ45" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK45" t="n">
         <v>5</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>1.14</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU58" t="n">
         <v>1.03</v>
@@ -12736,7 +12736,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>5121045</v>
+        <v>5121044</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -12756,140 +12756,140 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>['45+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>['52']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S61" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T61" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V61" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="W61" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X61" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Y61" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
         <v>1.05</v>
       </c>
       <c r="AC61" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="AD61" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>2.61</v>
+        <v>2.82</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AG61" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AI61" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AJ61" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="AK61" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AL61" t="n">
         <v>1.95</v>
       </c>
       <c r="AM61" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AN61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AO61" t="n">
         <v>1.3</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR61" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.2</v>
+        <v>1.71</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
       </c>
       <c r="AU61" t="n">
-        <v>1.65</v>
+        <v>1.97</v>
       </c>
       <c r="AV61" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.03</v>
+        <v>3.41</v>
       </c>
       <c r="AX61" t="n">
         <v>0</v>
@@ -12919,19 +12919,19 @@
         <v>4</v>
       </c>
       <c r="BG61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH61" t="n">
         <v>10</v>
       </c>
       <c r="BI61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ61" t="n">
         <v>14</v>
       </c>
       <c r="BK61" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -12939,7 +12939,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>5121044</v>
+        <v>5121045</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -12959,140 +12959,140 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+1']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['52']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S62" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U62" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V62" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="W62" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X62" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Y62" t="n">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB62" t="n">
         <v>1.05</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="AD62" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE62" t="n">
-        <v>2.82</v>
+        <v>2.61</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AG62" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AI62" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AJ62" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AL62" t="n">
         <v>1.95</v>
       </c>
       <c r="AM62" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AN62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AO62" t="n">
         <v>1.3</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR62" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
         <v>1.33</v>
       </c>
       <c r="AU62" t="n">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="AV62" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AW62" t="n">
-        <v>3.41</v>
+        <v>3.03</v>
       </c>
       <c r="AX62" t="n">
         <v>0</v>
@@ -13122,19 +13122,19 @@
         <v>4</v>
       </c>
       <c r="BG62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH62" t="n">
         <v>10</v>
       </c>
       <c r="BI62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ62" t="n">
         <v>14</v>
       </c>
       <c r="BK62" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -16128,7 +16128,7 @@
         <v>1.83</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU77" t="n">
         <v>1.83</v>
@@ -16390,7 +16390,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>5121060</v>
+        <v>5121054</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -16410,35 +16410,35 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['16', '47', '49', '61', '79']</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -16447,103 +16447,103 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T79" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="U79" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V79" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="W79" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="X79" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Y79" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AB79" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC79" t="n">
-        <v>2.21</v>
+        <v>1.91</v>
       </c>
       <c r="AD79" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AE79" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="AF79" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AG79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH79" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AJ79" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL79" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="AM79" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="AN79" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="AO79" t="n">
         <v>1.28</v>
       </c>
       <c r="AP79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR79" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="AV79" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AW79" t="n">
-        <v>3.05</v>
+        <v>3.29</v>
       </c>
       <c r="AX79" t="n">
         <v>0</v>
@@ -16564,22 +16564,22 @@
         <v>0</v>
       </c>
       <c r="BD79" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="BE79" t="n">
         <v>0</v>
       </c>
       <c r="BF79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH79" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI79" t="n">
         <v>8</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>6</v>
       </c>
       <c r="BJ79" t="n">
         <v>14</v>
@@ -16593,7 +16593,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>5121054</v>
+        <v>5121060</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -16613,35 +16613,35 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>['16', '47', '49', '61', '79']</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
@@ -16650,103 +16650,103 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S80" t="n">
+        <v>15</v>
+      </c>
+      <c r="T80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG80" t="n">
         <v>7</v>
       </c>
-      <c r="T80" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V80" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W80" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X80" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>6</v>
-      </c>
       <c r="AH80" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AI80" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="AJ80" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AK80" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AL80" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="AM80" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AO80" t="n">
         <v>1.28</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR80" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU80" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="AV80" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AW80" t="n">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="AX80" t="n">
         <v>0</v>
@@ -16767,22 +16767,22 @@
         <v>0</v>
       </c>
       <c r="BD80" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="BE80" t="n">
         <v>0</v>
       </c>
       <c r="BF80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG80" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH80" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI80" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ80" t="n">
         <v>14</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU83" t="n">
         <v>1.79</v>
@@ -17405,7 +17405,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>5121067</v>
+        <v>5121069</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -17425,50 +17425,50 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>6</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['21', '45', '75', '90+7']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['28', '63']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>3</v>
       </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>3</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>['58', '66', '83']</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q84" t="n">
-        <v>5</v>
-      </c>
       <c r="R84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S84" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T84" t="n">
         <v>2.6</v>
@@ -17480,85 +17480,85 @@
         <v>4.75</v>
       </c>
       <c r="W84" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X84" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ84" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y84" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>2</v>
-      </c>
       <c r="AR84" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
       </c>
       <c r="AU84" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="AV84" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AW84" t="n">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="AX84" t="n">
         <v>0</v>
@@ -17579,28 +17579,28 @@
         <v>0</v>
       </c>
       <c r="BD84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE84" t="n">
         <v>0</v>
       </c>
       <c r="BF84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH84" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BI84" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BJ84" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BK84" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">
@@ -17608,7 +17608,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>5121069</v>
+        <v>5121067</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -17628,50 +17628,50 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
         <v>3</v>
       </c>
-      <c r="L85" t="n">
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['58', '66', '83']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
         <v>4</v>
       </c>
-      <c r="M85" t="n">
-        <v>2</v>
-      </c>
-      <c r="N85" t="n">
-        <v>6</v>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>['21', '45', '75', '90+7']</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>['28', '63']</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>3</v>
-      </c>
-      <c r="R85" t="n">
+      <c r="S85" t="n">
         <v>9</v>
-      </c>
-      <c r="S85" t="n">
-        <v>12</v>
       </c>
       <c r="T85" t="n">
         <v>2.6</v>
@@ -17683,85 +17683,85 @@
         <v>4.75</v>
       </c>
       <c r="W85" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X85" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Y85" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD85" t="n">
         <v>3.3</v>
       </c>
-      <c r="Z85" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>3.16</v>
-      </c>
       <c r="AE85" t="n">
-        <v>3.69</v>
+        <v>4.4</v>
       </c>
       <c r="AF85" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AG85" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AH85" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="AJ85" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="AK85" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AL85" t="n">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="AM85" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AN85" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AO85" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR85" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.6</v>
+        <v>2.14</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5</v>
       </c>
       <c r="AU85" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AV85" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AW85" t="n">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="AX85" t="n">
         <v>0</v>
@@ -17782,28 +17782,28 @@
         <v>0</v>
       </c>
       <c r="BD85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE85" t="n">
         <v>0</v>
       </c>
       <c r="BF85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI85" t="n">
         <v>8</v>
       </c>
-      <c r="BH85" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI85" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ85" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK85" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -17811,7 +17811,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>5121064</v>
+        <v>5121063</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -17831,65 +17831,65 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Univ. Concepción</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
         <v>3</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['17', '59']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>6</v>
+      </c>
+      <c r="S86" t="n">
+        <v>11</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V86" t="n">
         <v>4</v>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>['71']</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>['17', '59', '65']</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>4</v>
-      </c>
-      <c r="R86" t="n">
-        <v>4</v>
-      </c>
-      <c r="S86" t="n">
-        <v>8</v>
-      </c>
-      <c r="T86" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V86" t="n">
-        <v>3.2</v>
-      </c>
       <c r="W86" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X86" t="n">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="Y86" t="n">
         <v>3.42</v>
@@ -17898,73 +17898,73 @@
         <v>1.27</v>
       </c>
       <c r="AA86" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB86" t="n">
         <v>1.03</v>
       </c>
       <c r="AC86" t="n">
-        <v>2.57</v>
+        <v>2.23</v>
       </c>
       <c r="AD86" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="AE86" t="n">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="AF86" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG86" t="n">
-        <v>7.55</v>
+        <v>7.65</v>
       </c>
       <c r="AH86" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AI86" t="n">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="AJ86" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AK86" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AL86" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="AM86" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AN86" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AO86" t="n">
         <v>1.32</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR86" t="n">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.8</v>
+        <v>2.33</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
       </c>
       <c r="AU86" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="AV86" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AW86" t="n">
-        <v>2.91</v>
+        <v>3.29</v>
       </c>
       <c r="AX86" t="n">
         <v>0</v>
@@ -17991,22 +17991,22 @@
         <v>0</v>
       </c>
       <c r="BF86" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH86" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BI86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BJ86" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BK86" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -18014,7 +18014,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>5121063</v>
+        <v>5121064</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -18034,65 +18034,65 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Univ. Concepción</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['17', '59']</t>
+          <t>['71']</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>['17', '59', '65']</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R87" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S87" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T87" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="U87" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V87" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="W87" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X87" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="Y87" t="n">
         <v>3.42</v>
@@ -18101,73 +18101,73 @@
         <v>1.27</v>
       </c>
       <c r="AA87" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AB87" t="n">
         <v>1.03</v>
       </c>
       <c r="AC87" t="n">
-        <v>2.23</v>
+        <v>2.57</v>
       </c>
       <c r="AD87" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="AE87" t="n">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="AF87" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG87" t="n">
-        <v>7.65</v>
+        <v>7.55</v>
       </c>
       <c r="AH87" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AI87" t="n">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="AJ87" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AL87" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="AM87" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AN87" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="AO87" t="n">
         <v>1.32</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.33</v>
+        <v>0.8</v>
       </c>
       <c r="AT87" t="n">
         <v>1</v>
       </c>
       <c r="AU87" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="AV87" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AW87" t="n">
-        <v>3.29</v>
+        <v>2.91</v>
       </c>
       <c r="AX87" t="n">
         <v>0</v>
@@ -18194,22 +18194,22 @@
         <v>0</v>
       </c>
       <c r="BF87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ87" t="n">
         <v>9</v>
       </c>
-      <c r="BG87" t="n">
+      <c r="BK87" t="n">
         <v>6</v>
-      </c>
-      <c r="BH87" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI87" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ87" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK87" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -19029,7 +19029,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>5121072</v>
+        <v>5121073</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -19049,98 +19049,98 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Barnechea</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Santiago Wanderers</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>['32']</t>
-        </is>
-      </c>
       <c r="Q92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S92" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T92" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U92" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V92" t="n">
         <v>4.5</v>
       </c>
       <c r="W92" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X92" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y92" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AA92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF92" t="n">
         <v>1.07</v>
       </c>
-      <c r="AC92" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>1.06</v>
-      </c>
       <c r="AG92" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AH92" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AI92" t="n">
-        <v>3.02</v>
+        <v>2.83</v>
       </c>
       <c r="AJ92" t="n">
         <v>2.01</v>
@@ -19149,40 +19149,40 @@
         <v>1.73</v>
       </c>
       <c r="AL92" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AM92" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AN92" t="n">
         <v>1.23</v>
       </c>
       <c r="AO92" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AR92" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AU92" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AV92" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AW92" t="n">
-        <v>2.83</v>
+        <v>2.95</v>
       </c>
       <c r="AX92" t="n">
         <v>0</v>
@@ -19212,19 +19212,19 @@
         <v>3</v>
       </c>
       <c r="BG92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI92" t="n">
         <v>3</v>
       </c>
-      <c r="BH92" t="n">
-        <v>16</v>
-      </c>
-      <c r="BI92" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ92" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="BK92" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
@@ -19232,7 +19232,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>5121073</v>
+        <v>5121072</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -19252,98 +19252,98 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Barnechea</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Santiago Wanderers</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
         <v>1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['32']</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R93" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S93" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T93" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V93" t="n">
         <v>4.5</v>
       </c>
       <c r="W93" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X93" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y93" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AA93" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF93" t="n">
         <v>1.06</v>
       </c>
-      <c r="AC93" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AG93" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AH93" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AI93" t="n">
-        <v>2.83</v>
+        <v>3.02</v>
       </c>
       <c r="AJ93" t="n">
         <v>2.01</v>
@@ -19352,40 +19352,40 @@
         <v>1.73</v>
       </c>
       <c r="AL93" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM93" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AN93" t="n">
         <v>1.23</v>
       </c>
       <c r="AO93" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AR93" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AW93" t="n">
-        <v>2.95</v>
+        <v>2.83</v>
       </c>
       <c r="AX93" t="n">
         <v>0</v>
@@ -19415,19 +19415,19 @@
         <v>3</v>
       </c>
       <c r="BG93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH93" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="BI93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ93" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="BK93" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -19638,7 +19638,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>5121070</v>
+        <v>5121071</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -19658,140 +19658,140 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Unión San Felipe</t>
+          <t>Deportes Iquique</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
         <v>3</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['25', '64', '90+11']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['15', '39']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
         <v>4</v>
       </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>['24', '36']</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>['35', '48']</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>3</v>
-      </c>
-      <c r="R95" t="n">
-        <v>7</v>
-      </c>
       <c r="S95" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T95" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="U95" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V95" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="W95" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X95" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="Y95" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AA95" t="n">
-        <v>7.3</v>
+        <v>7.25</v>
       </c>
       <c r="AB95" t="n">
         <v>1.06</v>
       </c>
       <c r="AC95" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="AD95" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AE95" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG95" t="n">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="AH95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV95" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI95" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM95" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO95" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP95" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR95" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS95" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AT95" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AW95" t="n">
-        <v>3.01</v>
+        <v>3.55</v>
       </c>
       <c r="AX95" t="n">
         <v>0</v>
@@ -19812,28 +19812,28 @@
         <v>0</v>
       </c>
       <c r="BD95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE95" t="n">
         <v>0</v>
       </c>
       <c r="BF95" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG95" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BH95" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI95" t="n">
         <v>9</v>
       </c>
-      <c r="BI95" t="n">
-        <v>13</v>
-      </c>
       <c r="BJ95" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="BK95" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96">
@@ -19841,7 +19841,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>5121071</v>
+        <v>5121070</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -19861,182 +19861,385 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Deportes Iquique</t>
+          <t>Unión San Felipe</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
         <v>3</v>
       </c>
       <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['24', '36']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['35', '48']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
         <v>3</v>
       </c>
-      <c r="M96" t="n">
-        <v>2</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>['25', '64', '90+11']</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>['15', '39']</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>5</v>
-      </c>
       <c r="R96" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S96" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T96" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V96" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W96" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X96" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Y96" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AA96" t="n">
-        <v>7.25</v>
+        <v>7.3</v>
       </c>
       <c r="AB96" t="n">
         <v>1.06</v>
       </c>
       <c r="AC96" t="n">
-        <v>1.88</v>
+        <v>2.34</v>
       </c>
       <c r="AD96" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AE96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5121082</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45066.5625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['31', '78']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['45', '71']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>8</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE97" t="n">
         <v>3.5</v>
       </c>
-      <c r="AF96" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM96" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AO96" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP96" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ96" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR96" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS96" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT96" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AW96" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD96" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF96" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG96" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH96" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI96" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ96" t="n">
-        <v>30</v>
-      </c>
-      <c r="BK96" t="n">
-        <v>19</v>
+      <c r="AF97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>1.83</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
         <v>1.14</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT5" t="n">
         <v>1.43</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.83</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>1.4</v>
@@ -3742,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.98</v>
@@ -6181,7 +6181,7 @@
         <v>1.83</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.39</v>
@@ -6384,7 +6384,7 @@
         <v>2.67</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU29" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>1.2</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>1.66</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.83</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU41" t="n">
         <v>1.8</v>
@@ -9023,7 +9023,7 @@
         <v>0.8</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU42" t="n">
         <v>1.22</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>1.17</v>
@@ -9835,7 +9835,7 @@
         <v>1.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.87</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1.83</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.98</v>
@@ -10444,7 +10444,7 @@
         <v>2.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU49" t="n">
         <v>1.87</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT52" t="n">
         <v>1.2</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT53" t="n">
         <v>0.5</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
@@ -11862,10 +11862,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
         <v>1.91</v>
@@ -12065,10 +12065,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU57" t="n">
         <v>1.69</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.14</v>
@@ -13083,7 +13083,7 @@
         <v>1.2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU62" t="n">
         <v>1.65</v>
@@ -13895,7 +13895,7 @@
         <v>1.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.83</v>
@@ -14095,10 +14095,10 @@
         <v>1.2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.77</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>1.43</v>
@@ -15313,7 +15313,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT73" t="n">
         <v>1.17</v>
@@ -15519,7 +15519,7 @@
         <v>2.4</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU74" t="n">
         <v>1.45</v>
@@ -15719,7 +15719,7 @@
         <v>2</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.33</v>
@@ -16531,10 +16531,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU79" t="n">
         <v>1.91</v>
@@ -16937,7 +16937,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>0.33</v>
@@ -17343,7 +17343,7 @@
         <v>1.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT83" t="n">
         <v>1.14</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5</v>
@@ -17955,7 +17955,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU86" t="n">
         <v>1.91</v>
@@ -18158,7 +18158,7 @@
         <v>0.8</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU87" t="n">
         <v>1.69</v>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.59</v>
@@ -20240,6 +20240,818 @@
       </c>
       <c r="BK97" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5121080</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45067.5625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3</v>
+      </c>
+      <c r="K98" t="n">
+        <v>4</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['8', '29', '35', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>9</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5121081</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['23', '72']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>9</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>14</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5121085</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45067.79166666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>11</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6</v>
+      </c>
+      <c r="S100" t="n">
+        <v>17</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5121079</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45067.875</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="n">
+        <v>5</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['35', '41', '70', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>11</v>
+      </c>
+      <c r="R101" t="n">
+        <v>8</v>
+      </c>
+      <c r="S101" t="n">
+        <v>19</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT6" t="n">
         <v>1.17</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -3339,7 +3339,7 @@
         <v>2.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT19" t="n">
         <v>1.43</v>
@@ -4557,7 +4557,7 @@
         <v>2.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU20" t="n">
         <v>2.07</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU21" t="n">
         <v>2.35</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -5775,7 +5775,7 @@
         <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU31" t="n">
         <v>1.25</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU38" t="n">
         <v>1.85</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT42" t="n">
         <v>1.29</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10647,7 +10647,7 @@
         <v>2.33</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU50" t="n">
         <v>1.94</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU51" t="n">
         <v>1.61</v>
@@ -11256,7 +11256,7 @@
         <v>1.43</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.61</v>
@@ -12471,10 +12471,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -12877,7 +12877,7 @@
         <v>1.67</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -14504,7 +14504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.89</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT70" t="n">
         <v>1.2</v>
@@ -14910,7 +14910,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU71" t="n">
         <v>2.05</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT72" t="n">
         <v>1.2</v>
@@ -15922,10 +15922,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU76" t="n">
         <v>1.93</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU81" t="n">
         <v>1.14</v>
@@ -17140,10 +17140,10 @@
         <v>0.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.74</v>
@@ -17549,7 +17549,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU84" t="n">
         <v>1.77</v>
@@ -18155,7 +18155,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT87" t="n">
         <v>1.25</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -21052,6 +21052,615 @@
       </c>
       <c r="BK101" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5121084</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45068.79166666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>8</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6</v>
+      </c>
+      <c r="S102" t="n">
+        <v>14</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5121078</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45068.89583333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>7</v>
+      </c>
+      <c r="S103" t="n">
+        <v>9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5121083</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45068.89583333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Santiago Morning</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['9', '18']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>8</v>
+      </c>
+      <c r="S104" t="n">
+        <v>12</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>1.25</v>
@@ -1715,7 +1715,7 @@
         <v>1.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>1.14</v>
@@ -2527,7 +2527,7 @@
         <v>2.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.5</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT14" t="n">
         <v>0.29</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT16" t="n">
         <v>1.14</v>
@@ -3948,7 +3948,7 @@
         <v>1.63</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU17" t="n">
         <v>2.15</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.14</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU21" t="n">
         <v>2.35</v>
@@ -5166,7 +5166,7 @@
         <v>1.63</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU23" t="n">
         <v>1.96</v>
@@ -5572,7 +5572,7 @@
         <v>1.17</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
         <v>0.29</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>1.29</v>
@@ -6381,7 +6381,7 @@
         <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT29" t="n">
         <v>1.14</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>0.95</v>
@@ -6790,7 +6790,7 @@
         <v>1.57</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU31" t="n">
         <v>1.25</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT32" t="n">
         <v>1.43</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU34" t="n">
         <v>1.97</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.99</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>2.2</v>
@@ -8614,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU40" t="n">
         <v>0.92</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.33</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.12</v>
@@ -10038,7 +10038,7 @@
         <v>1.57</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU47" t="n">
         <v>1.61</v>
@@ -10238,7 +10238,7 @@
         <v>0.75</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>1.5</v>
@@ -10441,7 +10441,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT49" t="n">
         <v>1.25</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT50" t="n">
         <v>0.57</v>
@@ -11053,7 +11053,7 @@
         <v>2.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.76</v>
@@ -11253,10 +11253,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU53" t="n">
         <v>1.61</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT55" t="n">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.42</v>
@@ -13080,7 +13080,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>1.14</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.65</v>
@@ -13689,10 +13689,10 @@
         <v>0.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU65" t="n">
         <v>1.94</v>
@@ -13892,7 +13892,7 @@
         <v>0.8</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.25</v>
@@ -14095,7 +14095,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -14501,10 +14501,10 @@
         <v>0.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.89</v>
@@ -14707,7 +14707,7 @@
         <v>1.29</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.58</v>
@@ -14907,7 +14907,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.29</v>
@@ -15113,7 +15113,7 @@
         <v>1.17</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.68</v>
@@ -15316,7 +15316,7 @@
         <v>1.57</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.79</v>
@@ -15516,7 +15516,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -16125,7 +16125,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
         <v>1.14</v>
@@ -16328,7 +16328,7 @@
         <v>1.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>1.43</v>
@@ -17143,7 +17143,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU82" t="n">
         <v>1.74</v>
@@ -17343,7 +17343,7 @@
         <v>1.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT83" t="n">
         <v>1.14</v>
@@ -17752,7 +17752,7 @@
         <v>2.25</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU85" t="n">
         <v>1.86</v>
@@ -17952,7 +17952,7 @@
         <v>1.2</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT86" t="n">
         <v>1.29</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU89" t="n">
         <v>1.61</v>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT91" t="n">
         <v>0</v>
@@ -19170,10 +19170,10 @@
         <v>0.6</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU92" t="n">
         <v>1.85</v>
@@ -19373,10 +19373,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.63</v>
@@ -19576,10 +19576,10 @@
         <v>1.4</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.8</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT95" t="n">
         <v>1.43</v>
@@ -19982,10 +19982,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.6</v>
@@ -20997,7 +20997,7 @@
         <v>1</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
         <v>1.29</v>
@@ -21406,7 +21406,7 @@
         <v>1.29</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU103" t="n">
         <v>1.66</v>
@@ -21661,6 +21661,1427 @@
       </c>
       <c r="BK104" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5121093</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45073.54166666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Barnechea</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['30', '78']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>10</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5121090</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45073.66666666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['87', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>7</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5121089</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45073.77083333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Deportes Temuco</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Santiago Wanderers</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['45+2', '81']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>6</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7</v>
+      </c>
+      <c r="S107" t="n">
+        <v>13</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5121087</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45073.875</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Cobreloa</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['76', '88']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5121091</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45074.5625</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Deportes Santa Cruz</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5121086</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45074.77083333334</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3</v>
+      </c>
+      <c r="L110" t="n">
+        <v>4</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['2', '38', '72', '90+1']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>7</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6</v>
+      </c>
+      <c r="S110" t="n">
+        <v>13</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>4</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5121092</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Chile Primera B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45074.875</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Unión San Felipe</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Univ. Concepción</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>4</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>5</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['49', '53', '67', '79']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>7</v>
+      </c>
+      <c r="S111" t="n">
+        <v>9</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,21 @@
     <t>['49', '53', '67', '79']</t>
   </si>
   <si>
+    <t>['18', '66', '90+7']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['74', '78']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -562,13 +577,7 @@
     <t>['30', '85']</t>
   </si>
   <si>
-    <t>['27']</t>
-  </si>
-  <si>
     <t>['24']</t>
-  </si>
-  <si>
-    <t>['28']</t>
   </si>
   <si>
     <t>['15']</t>
@@ -593,9 +602,6 @@
   </si>
   <si>
     <t>['50', '81']</t>
-  </si>
-  <si>
-    <t>['76']</t>
   </si>
   <si>
     <t>['43', '75']</t>
@@ -677,6 +683,21 @@
   </si>
   <si>
     <t>['16', '23', '76']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['45+2', '66']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,7 +1303,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1369,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT2">
         <v>0.38</v>
@@ -1563,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1754,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1942,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>1.63</v>
@@ -2133,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -2237,7 +2258,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2327,7 +2348,7 @@
         <v>1.71</v>
       </c>
       <c r="AT7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2428,7 +2449,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2518,7 +2539,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2619,7 +2640,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2706,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2897,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3001,7 +3022,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3088,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3473,7 +3494,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3664,7 +3685,7 @@
         <v>2.71</v>
       </c>
       <c r="AT14">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3855,7 +3876,7 @@
         <v>1.5</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>1.4</v>
@@ -3956,7 +3977,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4046,7 +4067,7 @@
         <v>1.25</v>
       </c>
       <c r="AT16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4147,7 +4168,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4234,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT17">
         <v>0.8</v>
@@ -4338,7 +4359,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4428,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="AT18">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -4529,7 +4550,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4616,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT19">
         <v>1.63</v>
@@ -4720,7 +4741,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4807,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT20">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU20">
         <v>2.07</v>
@@ -4911,7 +4932,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5102,7 +5123,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5189,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5293,7 +5314,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5380,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT23">
         <v>0.86</v>
@@ -5484,7 +5505,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5571,10 +5592,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT24">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU24">
         <v>1.98</v>
@@ -5675,7 +5696,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5762,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5956,7 +5977,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6144,10 +6165,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU27">
         <v>2.42</v>
@@ -6338,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU28">
         <v>1.39</v>
@@ -6529,7 +6550,7 @@
         <v>2.71</v>
       </c>
       <c r="AT29">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU29">
         <v>2.17</v>
@@ -6821,7 +6842,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6908,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
         <v>0.38</v>
@@ -7203,7 +7224,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7293,7 +7314,7 @@
         <v>1.25</v>
       </c>
       <c r="AT33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU33">
         <v>1.66</v>
@@ -7394,7 +7415,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7585,7 +7606,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7675,7 +7696,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7776,7 +7797,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7863,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -8245,10 +8266,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>1.85</v>
@@ -8436,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8731,7 +8752,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8821,7 +8842,7 @@
         <v>1.71</v>
       </c>
       <c r="AT41">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU41">
         <v>1.8</v>
@@ -9009,10 +9030,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU42">
         <v>1.22</v>
@@ -9113,7 +9134,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9203,7 +9224,7 @@
         <v>2</v>
       </c>
       <c r="AT43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9304,7 +9325,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9582,10 +9603,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU45">
         <v>1.84</v>
@@ -9686,7 +9707,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9773,10 +9794,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU46">
         <v>1.87</v>
@@ -9877,7 +9898,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -9964,7 +9985,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
         <v>0.8</v>
@@ -10068,7 +10089,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10158,7 +10179,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU48">
         <v>1.98</v>
@@ -10349,7 +10370,7 @@
         <v>2.71</v>
       </c>
       <c r="AT49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU49">
         <v>1.87</v>
@@ -10450,7 +10471,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10540,7 +10561,7 @@
         <v>2.43</v>
       </c>
       <c r="AT50">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>1.94</v>
@@ -10641,7 +10662,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10728,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT51">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU51">
         <v>1.61</v>
@@ -10919,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
         <v>1</v>
@@ -11023,7 +11044,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11301,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT54">
         <v>0</v>
@@ -11596,7 +11617,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11683,10 +11704,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT56">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU56">
         <v>1.91</v>
@@ -11787,7 +11808,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11874,10 +11895,10 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12068,7 +12089,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU58">
         <v>1.03</v>
@@ -12256,10 +12277,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT59">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12638,10 +12659,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU61">
         <v>1.97</v>
@@ -12832,7 +12853,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU62">
         <v>1.65</v>
@@ -12933,7 +12954,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13211,7 +13232,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT64">
         <v>1.63</v>
@@ -13596,7 +13617,7 @@
         <v>2</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>1.83</v>
@@ -13697,7 +13718,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13787,7 +13808,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU67">
         <v>1.77</v>
@@ -13888,7 +13909,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14079,7 +14100,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14357,7 +14378,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14461,7 +14482,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14551,7 +14572,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU71">
         <v>2.05</v>
@@ -14652,7 +14673,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14739,7 +14760,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14843,7 +14864,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14930,7 +14951,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15124,7 +15145,7 @@
         <v>2.5</v>
       </c>
       <c r="AT74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15315,7 +15336,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU75">
         <v>1.05</v>
@@ -15503,10 +15524,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU76">
         <v>1.93</v>
@@ -15697,7 +15718,7 @@
         <v>2</v>
       </c>
       <c r="AT77">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -16076,10 +16097,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT79">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU79">
         <v>1.91</v>
@@ -16267,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT80">
         <v>0</v>
@@ -16461,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU81">
         <v>1.14</v>
@@ -16562,7 +16583,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16649,7 +16670,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT82">
         <v>0.38</v>
@@ -16843,7 +16864,7 @@
         <v>1.25</v>
       </c>
       <c r="AT83">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU83">
         <v>1.79</v>
@@ -16944,7 +16965,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17031,10 +17052,10 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT84">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU84">
         <v>1.77</v>
@@ -17222,7 +17243,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT85">
         <v>0.86</v>
@@ -17326,7 +17347,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17416,7 +17437,7 @@
         <v>2.43</v>
       </c>
       <c r="AT86">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU86">
         <v>1.91</v>
@@ -17517,7 +17538,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17604,10 +17625,10 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT87">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -17708,7 +17729,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17795,10 +17816,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT88">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -17986,7 +18007,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT89">
         <v>0.8</v>
@@ -18180,7 +18201,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU90">
         <v>1.7</v>
@@ -18281,7 +18302,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18663,7 +18684,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18854,7 +18875,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19045,7 +19066,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19236,7 +19257,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19427,7 +19448,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19514,10 +19535,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT97">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -19618,7 +19639,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19708,7 +19729,7 @@
         <v>1</v>
       </c>
       <c r="AT98">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU98">
         <v>1.23</v>
@@ -19896,10 +19917,10 @@
         <v>1.71</v>
       </c>
       <c r="AS99">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20087,10 +20108,10 @@
         <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT100">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20191,7 +20212,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20281,7 +20302,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20382,7 +20403,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20469,10 +20490,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT102">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -20660,7 +20681,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT103">
         <v>0.38</v>
@@ -20851,10 +20872,10 @@
         <v>0.33</v>
       </c>
       <c r="AS104">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT104">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU104">
         <v>1.6</v>
@@ -20955,7 +20976,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21146,7 +21167,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21337,7 +21358,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21910,7 +21931,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22101,7 +22122,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22292,7 +22313,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22434,6 +22455,1534 @@
       </c>
       <c r="BK112">
         <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>5121099</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45078.875</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>76</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>169</v>
+      </c>
+      <c r="P113" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>4</v>
+      </c>
+      <c r="S113">
+        <v>10</v>
+      </c>
+      <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
+        <v>2.25</v>
+      </c>
+      <c r="V113">
+        <v>3.4</v>
+      </c>
+      <c r="W113">
+        <v>1.38</v>
+      </c>
+      <c r="X113">
+        <v>2.81</v>
+      </c>
+      <c r="Y113">
+        <v>2.5</v>
+      </c>
+      <c r="Z113">
+        <v>1.43</v>
+      </c>
+      <c r="AA113">
+        <v>5.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.08</v>
+      </c>
+      <c r="AC113">
+        <v>2.1</v>
+      </c>
+      <c r="AD113">
+        <v>3.2</v>
+      </c>
+      <c r="AE113">
+        <v>3.2</v>
+      </c>
+      <c r="AF113">
+        <v>1.04</v>
+      </c>
+      <c r="AG113">
+        <v>13.25</v>
+      </c>
+      <c r="AH113">
+        <v>1.24</v>
+      </c>
+      <c r="AI113">
+        <v>3.87</v>
+      </c>
+      <c r="AJ113">
+        <v>2.1</v>
+      </c>
+      <c r="AK113">
+        <v>1.73</v>
+      </c>
+      <c r="AL113">
+        <v>1.58</v>
+      </c>
+      <c r="AM113">
+        <v>2.2</v>
+      </c>
+      <c r="AN113">
+        <v>1.3</v>
+      </c>
+      <c r="AO113">
+        <v>1.29</v>
+      </c>
+      <c r="AP113">
+        <v>1.65</v>
+      </c>
+      <c r="AQ113">
+        <v>2</v>
+      </c>
+      <c r="AR113">
+        <v>0.57</v>
+      </c>
+      <c r="AS113">
+        <v>2.14</v>
+      </c>
+      <c r="AT113">
+        <v>0.5</v>
+      </c>
+      <c r="AU113">
+        <v>1.66</v>
+      </c>
+      <c r="AV113">
+        <v>1.62</v>
+      </c>
+      <c r="AW113">
+        <v>3.28</v>
+      </c>
+      <c r="AX113">
+        <v>0</v>
+      </c>
+      <c r="AY113">
+        <v>0</v>
+      </c>
+      <c r="AZ113">
+        <v>0</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>0</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>10</v>
+      </c>
+      <c r="BG113">
+        <v>9</v>
+      </c>
+      <c r="BH113">
+        <v>9</v>
+      </c>
+      <c r="BI113">
+        <v>8</v>
+      </c>
+      <c r="BJ113">
+        <v>19</v>
+      </c>
+      <c r="BK113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>5121096</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>67</v>
+      </c>
+      <c r="H114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>170</v>
+      </c>
+      <c r="P114" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>3</v>
+      </c>
+      <c r="S114">
+        <v>3</v>
+      </c>
+      <c r="T114">
+        <v>2.88</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.4</v>
+      </c>
+      <c r="X114">
+        <v>2.75</v>
+      </c>
+      <c r="Y114">
+        <v>2.88</v>
+      </c>
+      <c r="Z114">
+        <v>1.36</v>
+      </c>
+      <c r="AA114">
+        <v>6.75</v>
+      </c>
+      <c r="AB114">
+        <v>1.08</v>
+      </c>
+      <c r="AC114">
+        <v>2.35</v>
+      </c>
+      <c r="AD114">
+        <v>3.1</v>
+      </c>
+      <c r="AE114">
+        <v>2.7</v>
+      </c>
+      <c r="AF114">
+        <v>1.06</v>
+      </c>
+      <c r="AG114">
+        <v>11.5</v>
+      </c>
+      <c r="AH114">
+        <v>1.27</v>
+      </c>
+      <c r="AI114">
+        <v>3.45</v>
+      </c>
+      <c r="AJ114">
+        <v>1.85</v>
+      </c>
+      <c r="AK114">
+        <v>1.85</v>
+      </c>
+      <c r="AL114">
+        <v>1.68</v>
+      </c>
+      <c r="AM114">
+        <v>2.05</v>
+      </c>
+      <c r="AN114">
+        <v>1.4</v>
+      </c>
+      <c r="AO114">
+        <v>1.33</v>
+      </c>
+      <c r="AP114">
+        <v>1.5</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AR114">
+        <v>1.5</v>
+      </c>
+      <c r="AS114">
+        <v>1</v>
+      </c>
+      <c r="AT114">
+        <v>1.44</v>
+      </c>
+      <c r="AU114">
+        <v>1.24</v>
+      </c>
+      <c r="AV114">
+        <v>1.69</v>
+      </c>
+      <c r="AW114">
+        <v>2.93</v>
+      </c>
+      <c r="AX114">
+        <v>0</v>
+      </c>
+      <c r="AY114">
+        <v>0</v>
+      </c>
+      <c r="AZ114">
+        <v>0</v>
+      </c>
+      <c r="BA114">
+        <v>0</v>
+      </c>
+      <c r="BB114">
+        <v>0</v>
+      </c>
+      <c r="BC114">
+        <v>0</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>5</v>
+      </c>
+      <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
+        <v>6</v>
+      </c>
+      <c r="BI114">
+        <v>8</v>
+      </c>
+      <c r="BJ114">
+        <v>11</v>
+      </c>
+      <c r="BK114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>5121100</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45080.77083333334</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>171</v>
+      </c>
+      <c r="P115" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q115">
+        <v>7</v>
+      </c>
+      <c r="R115">
+        <v>4</v>
+      </c>
+      <c r="S115">
+        <v>11</v>
+      </c>
+      <c r="T115">
+        <v>2.25</v>
+      </c>
+      <c r="U115">
+        <v>2.3</v>
+      </c>
+      <c r="V115">
+        <v>4.33</v>
+      </c>
+      <c r="W115">
+        <v>1.34</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.53</v>
+      </c>
+      <c r="Z115">
+        <v>1.45</v>
+      </c>
+      <c r="AA115">
+        <v>5.75</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>1.67</v>
+      </c>
+      <c r="AD115">
+        <v>3.5</v>
+      </c>
+      <c r="AE115">
+        <v>4.4</v>
+      </c>
+      <c r="AF115">
+        <v>1.03</v>
+      </c>
+      <c r="AG115">
+        <v>12.75</v>
+      </c>
+      <c r="AH115">
+        <v>1.21</v>
+      </c>
+      <c r="AI115">
+        <v>3.82</v>
+      </c>
+      <c r="AJ115">
+        <v>1.73</v>
+      </c>
+      <c r="AK115">
+        <v>2</v>
+      </c>
+      <c r="AL115">
+        <v>1.7</v>
+      </c>
+      <c r="AM115">
+        <v>2.01</v>
+      </c>
+      <c r="AN115">
+        <v>1.18</v>
+      </c>
+      <c r="AO115">
+        <v>1.24</v>
+      </c>
+      <c r="AP115">
+        <v>2</v>
+      </c>
+      <c r="AQ115">
+        <v>2.25</v>
+      </c>
+      <c r="AR115">
+        <v>1.33</v>
+      </c>
+      <c r="AS115">
+        <v>2.33</v>
+      </c>
+      <c r="AT115">
+        <v>1.14</v>
+      </c>
+      <c r="AU115">
+        <v>2</v>
+      </c>
+      <c r="AV115">
+        <v>1.47</v>
+      </c>
+      <c r="AW115">
+        <v>3.47</v>
+      </c>
+      <c r="AX115">
+        <v>0</v>
+      </c>
+      <c r="AY115">
+        <v>0</v>
+      </c>
+      <c r="AZ115">
+        <v>0</v>
+      </c>
+      <c r="BA115">
+        <v>1.3</v>
+      </c>
+      <c r="BB115">
+        <v>1.57</v>
+      </c>
+      <c r="BC115">
+        <v>2</v>
+      </c>
+      <c r="BD115">
+        <v>2.7</v>
+      </c>
+      <c r="BE115">
+        <v>3.75</v>
+      </c>
+      <c r="BF115">
+        <v>5</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>10</v>
+      </c>
+      <c r="BI115">
+        <v>6</v>
+      </c>
+      <c r="BJ115">
+        <v>15</v>
+      </c>
+      <c r="BK115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>5121097</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45080.875</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>83</v>
+      </c>
+      <c r="P116" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q116">
+        <v>11</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>14</v>
+      </c>
+      <c r="T116">
+        <v>2.88</v>
+      </c>
+      <c r="U116">
+        <v>2.25</v>
+      </c>
+      <c r="V116">
+        <v>3.2</v>
+      </c>
+      <c r="W116">
+        <v>1.35</v>
+      </c>
+      <c r="X116">
+        <v>3.05</v>
+      </c>
+      <c r="Y116">
+        <v>2.45</v>
+      </c>
+      <c r="Z116">
+        <v>1.47</v>
+      </c>
+      <c r="AA116">
+        <v>5.6</v>
+      </c>
+      <c r="AB116">
+        <v>1.12</v>
+      </c>
+      <c r="AC116">
+        <v>2.3</v>
+      </c>
+      <c r="AD116">
+        <v>3.25</v>
+      </c>
+      <c r="AE116">
+        <v>2.65</v>
+      </c>
+      <c r="AF116">
+        <v>1.05</v>
+      </c>
+      <c r="AG116">
+        <v>9</v>
+      </c>
+      <c r="AH116">
+        <v>1.2</v>
+      </c>
+      <c r="AI116">
+        <v>4.02</v>
+      </c>
+      <c r="AJ116">
+        <v>1.67</v>
+      </c>
+      <c r="AK116">
+        <v>2.1</v>
+      </c>
+      <c r="AL116">
+        <v>1.55</v>
+      </c>
+      <c r="AM116">
+        <v>2.3</v>
+      </c>
+      <c r="AN116">
+        <v>1.4</v>
+      </c>
+      <c r="AO116">
+        <v>1.3</v>
+      </c>
+      <c r="AP116">
+        <v>1.55</v>
+      </c>
+      <c r="AQ116">
+        <v>1.17</v>
+      </c>
+      <c r="AR116">
+        <v>1.14</v>
+      </c>
+      <c r="AS116">
+        <v>1</v>
+      </c>
+      <c r="AT116">
+        <v>1.38</v>
+      </c>
+      <c r="AU116">
+        <v>1.6</v>
+      </c>
+      <c r="AV116">
+        <v>1.34</v>
+      </c>
+      <c r="AW116">
+        <v>2.94</v>
+      </c>
+      <c r="AX116">
+        <v>0</v>
+      </c>
+      <c r="AY116">
+        <v>0</v>
+      </c>
+      <c r="AZ116">
+        <v>0</v>
+      </c>
+      <c r="BA116">
+        <v>1.25</v>
+      </c>
+      <c r="BB116">
+        <v>1.47</v>
+      </c>
+      <c r="BC116">
+        <v>1.88</v>
+      </c>
+      <c r="BD116">
+        <v>2.38</v>
+      </c>
+      <c r="BE116">
+        <v>3.3</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>8</v>
+      </c>
+      <c r="BH116">
+        <v>12</v>
+      </c>
+      <c r="BI116">
+        <v>2</v>
+      </c>
+      <c r="BJ116">
+        <v>16</v>
+      </c>
+      <c r="BK116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>5121095</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45081.5625</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q117">
+        <v>11</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>17</v>
+      </c>
+      <c r="T117">
+        <v>2.75</v>
+      </c>
+      <c r="U117">
+        <v>2.25</v>
+      </c>
+      <c r="V117">
+        <v>3.4</v>
+      </c>
+      <c r="W117">
+        <v>1.35</v>
+      </c>
+      <c r="X117">
+        <v>3</v>
+      </c>
+      <c r="Y117">
+        <v>2.5</v>
+      </c>
+      <c r="Z117">
+        <v>1.48</v>
+      </c>
+      <c r="AA117">
+        <v>5.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.11</v>
+      </c>
+      <c r="AC117">
+        <v>2.09</v>
+      </c>
+      <c r="AD117">
+        <v>3.3</v>
+      </c>
+      <c r="AE117">
+        <v>2.99</v>
+      </c>
+      <c r="AF117">
+        <v>1.03</v>
+      </c>
+      <c r="AG117">
+        <v>13.5</v>
+      </c>
+      <c r="AH117">
+        <v>1.21</v>
+      </c>
+      <c r="AI117">
+        <v>3.9</v>
+      </c>
+      <c r="AJ117">
+        <v>1.9</v>
+      </c>
+      <c r="AK117">
+        <v>1.92</v>
+      </c>
+      <c r="AL117">
+        <v>1.58</v>
+      </c>
+      <c r="AM117">
+        <v>2.25</v>
+      </c>
+      <c r="AN117">
+        <v>1.35</v>
+      </c>
+      <c r="AO117">
+        <v>1.28</v>
+      </c>
+      <c r="AP117">
+        <v>1.58</v>
+      </c>
+      <c r="AQ117">
+        <v>2.33</v>
+      </c>
+      <c r="AR117">
+        <v>1.25</v>
+      </c>
+      <c r="AS117">
+        <v>2.14</v>
+      </c>
+      <c r="AT117">
+        <v>1.22</v>
+      </c>
+      <c r="AU117">
+        <v>1.7</v>
+      </c>
+      <c r="AV117">
+        <v>1.29</v>
+      </c>
+      <c r="AW117">
+        <v>2.99</v>
+      </c>
+      <c r="AX117">
+        <v>0</v>
+      </c>
+      <c r="AY117">
+        <v>0</v>
+      </c>
+      <c r="AZ117">
+        <v>0</v>
+      </c>
+      <c r="BA117">
+        <v>0</v>
+      </c>
+      <c r="BB117">
+        <v>0</v>
+      </c>
+      <c r="BC117">
+        <v>0</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>8</v>
+      </c>
+      <c r="BG117">
+        <v>6</v>
+      </c>
+      <c r="BH117">
+        <v>6</v>
+      </c>
+      <c r="BI117">
+        <v>9</v>
+      </c>
+      <c r="BJ117">
+        <v>14</v>
+      </c>
+      <c r="BK117">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>5121098</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" t="s">
+        <v>70</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>172</v>
+      </c>
+      <c r="P118" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>4</v>
+      </c>
+      <c r="S118">
+        <v>8</v>
+      </c>
+      <c r="T118">
+        <v>2.75</v>
+      </c>
+      <c r="U118">
+        <v>2.1</v>
+      </c>
+      <c r="V118">
+        <v>3.75</v>
+      </c>
+      <c r="W118">
+        <v>1.46</v>
+      </c>
+      <c r="X118">
+        <v>2.55</v>
+      </c>
+      <c r="Y118">
+        <v>2.99</v>
+      </c>
+      <c r="Z118">
+        <v>1.34</v>
+      </c>
+      <c r="AA118">
+        <v>7.3</v>
+      </c>
+      <c r="AB118">
+        <v>1.06</v>
+      </c>
+      <c r="AC118">
+        <v>2.3</v>
+      </c>
+      <c r="AD118">
+        <v>3.08</v>
+      </c>
+      <c r="AE118">
+        <v>3.13</v>
+      </c>
+      <c r="AF118">
+        <v>1.08</v>
+      </c>
+      <c r="AG118">
+        <v>7</v>
+      </c>
+      <c r="AH118">
+        <v>1.32</v>
+      </c>
+      <c r="AI118">
+        <v>3.12</v>
+      </c>
+      <c r="AJ118">
+        <v>2.07</v>
+      </c>
+      <c r="AK118">
+        <v>1.74</v>
+      </c>
+      <c r="AL118">
+        <v>1.8</v>
+      </c>
+      <c r="AM118">
+        <v>1.9</v>
+      </c>
+      <c r="AN118">
+        <v>1.3</v>
+      </c>
+      <c r="AO118">
+        <v>1.36</v>
+      </c>
+      <c r="AP118">
+        <v>1.57</v>
+      </c>
+      <c r="AQ118">
+        <v>1.57</v>
+      </c>
+      <c r="AR118">
+        <v>0.29</v>
+      </c>
+      <c r="AS118">
+        <v>1.5</v>
+      </c>
+      <c r="AT118">
+        <v>0.38</v>
+      </c>
+      <c r="AU118">
+        <v>1.96</v>
+      </c>
+      <c r="AV118">
+        <v>0.88</v>
+      </c>
+      <c r="AW118">
+        <v>2.84</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>1.19</v>
+      </c>
+      <c r="BB118">
+        <v>1.36</v>
+      </c>
+      <c r="BC118">
+        <v>1.65</v>
+      </c>
+      <c r="BD118">
+        <v>2.1</v>
+      </c>
+      <c r="BE118">
+        <v>2.8</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>3</v>
+      </c>
+      <c r="BH118">
+        <v>10</v>
+      </c>
+      <c r="BI118">
+        <v>3</v>
+      </c>
+      <c r="BJ118">
+        <v>16</v>
+      </c>
+      <c r="BK118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>5121094</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45081.77083333334</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" t="s">
+        <v>66</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>173</v>
+      </c>
+      <c r="P119" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q119">
+        <v>8</v>
+      </c>
+      <c r="R119">
+        <v>6</v>
+      </c>
+      <c r="S119">
+        <v>14</v>
+      </c>
+      <c r="T119">
+        <v>2.88</v>
+      </c>
+      <c r="U119">
+        <v>2.1</v>
+      </c>
+      <c r="V119">
+        <v>3.6</v>
+      </c>
+      <c r="W119">
+        <v>1.42</v>
+      </c>
+      <c r="X119">
+        <v>2.6</v>
+      </c>
+      <c r="Y119">
+        <v>2.9</v>
+      </c>
+      <c r="Z119">
+        <v>1.35</v>
+      </c>
+      <c r="AA119">
+        <v>6.75</v>
+      </c>
+      <c r="AB119">
+        <v>1.07</v>
+      </c>
+      <c r="AC119">
+        <v>2.22</v>
+      </c>
+      <c r="AD119">
+        <v>3.1</v>
+      </c>
+      <c r="AE119">
+        <v>3.26</v>
+      </c>
+      <c r="AF119">
+        <v>1.05</v>
+      </c>
+      <c r="AG119">
+        <v>9.9</v>
+      </c>
+      <c r="AH119">
+        <v>1.32</v>
+      </c>
+      <c r="AI119">
+        <v>3.12</v>
+      </c>
+      <c r="AJ119">
+        <v>2.07</v>
+      </c>
+      <c r="AK119">
+        <v>1.74</v>
+      </c>
+      <c r="AL119">
+        <v>1.78</v>
+      </c>
+      <c r="AM119">
+        <v>1.99</v>
+      </c>
+      <c r="AN119">
+        <v>1.29</v>
+      </c>
+      <c r="AO119">
+        <v>1.32</v>
+      </c>
+      <c r="AP119">
+        <v>1.59</v>
+      </c>
+      <c r="AQ119">
+        <v>1.63</v>
+      </c>
+      <c r="AR119">
+        <v>1.29</v>
+      </c>
+      <c r="AS119">
+        <v>1.56</v>
+      </c>
+      <c r="AT119">
+        <v>1.25</v>
+      </c>
+      <c r="AU119">
+        <v>1.76</v>
+      </c>
+      <c r="AV119">
+        <v>1.58</v>
+      </c>
+      <c r="AW119">
+        <v>3.34</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>1.23</v>
+      </c>
+      <c r="BC119">
+        <v>1.41</v>
+      </c>
+      <c r="BD119">
+        <v>1.72</v>
+      </c>
+      <c r="BE119">
+        <v>2.18</v>
+      </c>
+      <c r="BF119">
+        <v>9</v>
+      </c>
+      <c r="BG119">
+        <v>4</v>
+      </c>
+      <c r="BH119">
+        <v>9</v>
+      </c>
+      <c r="BI119">
+        <v>7</v>
+      </c>
+      <c r="BJ119">
+        <v>18</v>
+      </c>
+      <c r="BK119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5121101</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45081.875</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>74</v>
+      </c>
+      <c r="H120" t="s">
+        <v>75</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>128</v>
+      </c>
+      <c r="P120" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q120">
+        <v>3</v>
+      </c>
+      <c r="R120">
+        <v>8</v>
+      </c>
+      <c r="S120">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>2.88</v>
+      </c>
+      <c r="U120">
+        <v>2.1</v>
+      </c>
+      <c r="V120">
+        <v>3.5</v>
+      </c>
+      <c r="W120">
+        <v>1.45</v>
+      </c>
+      <c r="X120">
+        <v>2.58</v>
+      </c>
+      <c r="Y120">
+        <v>2.9</v>
+      </c>
+      <c r="Z120">
+        <v>1.36</v>
+      </c>
+      <c r="AA120">
+        <v>7.3</v>
+      </c>
+      <c r="AB120">
+        <v>1.06</v>
+      </c>
+      <c r="AC120">
+        <v>2.46</v>
+      </c>
+      <c r="AD120">
+        <v>3.04</v>
+      </c>
+      <c r="AE120">
+        <v>2.9</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>7.7</v>
+      </c>
+      <c r="AH120">
+        <v>1.33</v>
+      </c>
+      <c r="AI120">
+        <v>3.1</v>
+      </c>
+      <c r="AJ120">
+        <v>2.07</v>
+      </c>
+      <c r="AK120">
+        <v>1.74</v>
+      </c>
+      <c r="AL120">
+        <v>1.75</v>
+      </c>
+      <c r="AM120">
+        <v>2</v>
+      </c>
+      <c r="AN120">
+        <v>1.33</v>
+      </c>
+      <c r="AO120">
+        <v>1.28</v>
+      </c>
+      <c r="AP120">
+        <v>1.55</v>
+      </c>
+      <c r="AQ120">
+        <v>1.29</v>
+      </c>
+      <c r="AR120">
+        <v>1.14</v>
+      </c>
+      <c r="AS120">
+        <v>1.25</v>
+      </c>
+      <c r="AT120">
+        <v>1.13</v>
+      </c>
+      <c r="AU120">
+        <v>1.66</v>
+      </c>
+      <c r="AV120">
+        <v>1.22</v>
+      </c>
+      <c r="AW120">
+        <v>2.88</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>1.29</v>
+      </c>
+      <c r="BC120">
+        <v>1.53</v>
+      </c>
+      <c r="BD120">
+        <v>1.9</v>
+      </c>
+      <c r="BE120">
+        <v>2.48</v>
+      </c>
+      <c r="BF120">
+        <v>9</v>
+      </c>
+      <c r="BG120">
+        <v>2</v>
+      </c>
+      <c r="BH120">
+        <v>10</v>
+      </c>
+      <c r="BI120">
+        <v>8</v>
+      </c>
+      <c r="BJ120">
+        <v>19</v>
+      </c>
+      <c r="BK120">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,9 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['18', '78']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -1059,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1303,7 +1306,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2258,7 +2261,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2449,7 +2452,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2640,7 +2643,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3022,7 +3025,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3977,7 +3980,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4168,7 +4171,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4258,7 +4261,7 @@
         <v>1.56</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>2.15</v>
@@ -4359,7 +4362,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4550,7 +4553,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4741,7 +4744,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4932,7 +4935,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5123,7 +5126,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5314,7 +5317,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5505,7 +5508,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5783,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6842,7 +6845,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7415,7 +7418,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7505,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -7606,7 +7609,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7797,7 +7800,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8752,7 +8755,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9030,7 +9033,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
         <v>1.25</v>
@@ -9134,7 +9137,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9325,7 +9328,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9707,7 +9710,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9898,7 +9901,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -9988,7 +9991,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10089,7 +10092,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10471,7 +10474,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11044,7 +11047,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11617,7 +11620,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11808,7 +11811,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12277,7 +12280,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT59">
         <v>0.5</v>
@@ -12954,7 +12957,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13718,7 +13721,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13909,7 +13912,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14100,7 +14103,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14482,7 +14485,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14673,7 +14676,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14760,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -14864,7 +14867,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -16583,7 +16586,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16965,7 +16968,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17347,7 +17350,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17538,7 +17541,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17625,7 +17628,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT87">
         <v>1.22</v>
@@ -17729,7 +17732,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18010,7 +18013,7 @@
         <v>2.14</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU89">
         <v>1.61</v>
@@ -18302,7 +18305,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18684,7 +18687,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18875,7 +18878,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19066,7 +19069,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19257,7 +19260,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19448,7 +19451,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19639,7 +19642,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20212,7 +20215,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20403,7 +20406,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20872,7 +20875,7 @@
         <v>0.33</v>
       </c>
       <c r="AS104">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT104">
         <v>0.38</v>
@@ -20976,7 +20979,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21066,7 +21069,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.65</v>
@@ -21167,7 +21170,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21358,7 +21361,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21931,7 +21934,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22122,7 +22125,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22313,7 +22316,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22504,7 +22507,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22695,7 +22698,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -23077,7 +23080,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23164,7 +23167,7 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT116">
         <v>1.38</v>
@@ -23268,7 +23271,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23650,7 +23653,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23841,7 +23844,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23983,6 +23986,197 @@
       </c>
       <c r="BK120">
         <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5120997</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45089.85416666666</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>79</v>
+      </c>
+      <c r="H121" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121" t="s">
+        <v>174</v>
+      </c>
+      <c r="P121" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q121">
+        <v>5</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>7</v>
+      </c>
+      <c r="T121">
+        <v>3.2</v>
+      </c>
+      <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
+        <v>3.5</v>
+      </c>
+      <c r="W121">
+        <v>1.46</v>
+      </c>
+      <c r="X121">
+        <v>2.53</v>
+      </c>
+      <c r="Y121">
+        <v>3.15</v>
+      </c>
+      <c r="Z121">
+        <v>1.31</v>
+      </c>
+      <c r="AA121">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB121">
+        <v>1.04</v>
+      </c>
+      <c r="AC121">
+        <v>2.34</v>
+      </c>
+      <c r="AD121">
+        <v>3.15</v>
+      </c>
+      <c r="AE121">
+        <v>3</v>
+      </c>
+      <c r="AF121">
+        <v>1.04</v>
+      </c>
+      <c r="AG121">
+        <v>7.4</v>
+      </c>
+      <c r="AH121">
+        <v>1.37</v>
+      </c>
+      <c r="AI121">
+        <v>2.75</v>
+      </c>
+      <c r="AJ121">
+        <v>1.91</v>
+      </c>
+      <c r="AK121">
+        <v>1.87</v>
+      </c>
+      <c r="AL121">
+        <v>1.93</v>
+      </c>
+      <c r="AM121">
+        <v>1.75</v>
+      </c>
+      <c r="AN121">
+        <v>1.34</v>
+      </c>
+      <c r="AO121">
+        <v>1.28</v>
+      </c>
+      <c r="AP121">
+        <v>1.6</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>0.8</v>
+      </c>
+      <c r="AS121">
+        <v>1.25</v>
+      </c>
+      <c r="AT121">
+        <v>0.67</v>
+      </c>
+      <c r="AU121">
+        <v>1.67</v>
+      </c>
+      <c r="AV121">
+        <v>1.08</v>
+      </c>
+      <c r="AW121">
+        <v>2.75</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>3</v>
+      </c>
+      <c r="BG121">
+        <v>7</v>
+      </c>
+      <c r="BH121">
+        <v>6</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>9</v>
+      </c>
+      <c r="BK121">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,10 +541,25 @@
     <t>['18', '78']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['49']</t>
   </si>
   <si>
-    <t>['49']</t>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['19', '33']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['19', '68']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
   <si>
     <t>['12', '59', '65']</t>
@@ -701,6 +716,18 @@
   </si>
   <si>
     <t>['67']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['15', '90+6']</t>
+  </si>
+  <si>
+    <t>['60', '90+5']</t>
+  </si>
+  <si>
+    <t>['40', '53', '71']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1333,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2261,7 +2288,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2452,7 +2479,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2643,7 +2670,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2730,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT9">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2921,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3025,7 +3052,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3112,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT11">
         <v>1.14</v>
@@ -3303,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3494,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT13">
         <v>1.44</v>
@@ -3688,7 +3715,7 @@
         <v>2.71</v>
       </c>
       <c r="AT14">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3980,7 +4007,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4171,7 +4198,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4261,7 +4288,7 @@
         <v>1.56</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU17">
         <v>2.15</v>
@@ -4362,7 +4389,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4553,7 +4580,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4640,7 +4667,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT19">
         <v>1.63</v>
@@ -4744,7 +4771,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4935,7 +4962,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5126,7 +5153,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5317,7 +5344,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5407,7 +5434,7 @@
         <v>1.56</v>
       </c>
       <c r="AT23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU23">
         <v>1.96</v>
@@ -5508,7 +5535,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5595,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT24">
         <v>1.44</v>
@@ -5977,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT26">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6168,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT27">
         <v>1.14</v>
@@ -6359,10 +6386,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT28">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU28">
         <v>1.39</v>
@@ -6744,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU30">
         <v>0.95</v>
@@ -6845,7 +6872,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7123,7 +7150,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT32">
         <v>1.63</v>
@@ -7418,7 +7445,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7508,7 +7535,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -7609,7 +7636,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7800,7 +7827,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8081,7 +8108,7 @@
         <v>2.71</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU37">
         <v>1.99</v>
@@ -8269,7 +8296,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT38">
         <v>0.5</v>
@@ -8460,10 +8487,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU39">
         <v>2.2</v>
@@ -8651,10 +8678,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU40">
         <v>0.92</v>
@@ -8755,7 +8782,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9036,7 +9063,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU42">
         <v>1.22</v>
@@ -9137,7 +9164,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9224,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT43">
         <v>1.14</v>
@@ -9328,7 +9355,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9606,7 +9633,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT45">
         <v>1.38</v>
@@ -9710,7 +9737,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9901,7 +9928,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -9991,7 +10018,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10092,7 +10119,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10474,7 +10501,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10561,7 +10588,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT50">
         <v>0.5</v>
@@ -10752,10 +10779,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU51">
         <v>1.61</v>
@@ -10946,7 +10973,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU52">
         <v>1.76</v>
@@ -11047,7 +11074,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11325,7 +11352,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT54">
         <v>0</v>
@@ -11620,7 +11647,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11811,7 +11838,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11901,7 +11928,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12471,7 +12498,7 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12957,7 +12984,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13047,7 +13074,7 @@
         <v>1.71</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU63">
         <v>1.65</v>
@@ -13235,7 +13262,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT64">
         <v>1.63</v>
@@ -13429,7 +13456,7 @@
         <v>2.71</v>
       </c>
       <c r="AT65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU65">
         <v>1.94</v>
@@ -13617,7 +13644,7 @@
         <v>0.8</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT66">
         <v>1.22</v>
@@ -13721,7 +13748,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13912,7 +13939,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14103,7 +14130,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14190,7 +14217,7 @@
         <v>0.25</v>
       </c>
       <c r="AS69">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT69">
         <v>0.38</v>
@@ -14381,10 +14408,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14485,7 +14512,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14575,7 +14602,7 @@
         <v>2</v>
       </c>
       <c r="AT71">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU71">
         <v>2.05</v>
@@ -14676,7 +14703,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14766,7 +14793,7 @@
         <v>1.25</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -14867,7 +14894,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15145,7 +15172,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT74">
         <v>1.13</v>
@@ -15530,7 +15557,7 @@
         <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU76">
         <v>1.93</v>
@@ -15718,7 +15745,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT77">
         <v>1.38</v>
@@ -16103,7 +16130,7 @@
         <v>2.33</v>
       </c>
       <c r="AT79">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU79">
         <v>1.91</v>
@@ -16291,7 +16318,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT80">
         <v>0</v>
@@ -16485,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="AT81">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU81">
         <v>1.14</v>
@@ -16586,7 +16613,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16968,7 +16995,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17055,7 +17082,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT84">
         <v>0.5</v>
@@ -17249,7 +17276,7 @@
         <v>2.33</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU85">
         <v>1.86</v>
@@ -17350,7 +17377,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17437,10 +17464,10 @@
         <v>1.2</v>
       </c>
       <c r="AS86">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU86">
         <v>1.91</v>
@@ -17541,7 +17568,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17732,7 +17759,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17819,7 +17846,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT88">
         <v>1.44</v>
@@ -18010,10 +18037,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU89">
         <v>1.61</v>
@@ -18305,7 +18332,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18392,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT91">
         <v>0</v>
@@ -18583,10 +18610,10 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT92">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU92">
         <v>1.85</v>
@@ -18687,7 +18714,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18774,10 +18801,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU93">
         <v>1.63</v>
@@ -18878,7 +18905,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19069,7 +19096,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19260,7 +19287,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19350,7 +19377,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU96">
         <v>1.6</v>
@@ -19451,7 +19478,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19538,7 +19565,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT97">
         <v>1.38</v>
@@ -19642,7 +19669,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -20215,7 +20242,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20305,7 +20332,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20406,7 +20433,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20684,7 +20711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT103">
         <v>0.38</v>
@@ -20878,7 +20905,7 @@
         <v>1.25</v>
       </c>
       <c r="AT104">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU104">
         <v>1.6</v>
@@ -20979,7 +21006,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21066,10 +21093,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT105">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.65</v>
@@ -21170,7 +21197,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21260,7 +21287,7 @@
         <v>1.25</v>
       </c>
       <c r="AT106">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU106">
         <v>1.91</v>
@@ -21361,7 +21388,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21448,10 +21475,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU107">
         <v>1.89</v>
@@ -21642,7 +21669,7 @@
         <v>2.71</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU108">
         <v>1.8</v>
@@ -21934,7 +21961,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22021,7 +22048,7 @@
         <v>0.43</v>
       </c>
       <c r="AS110">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AT110">
         <v>0.38</v>
@@ -22125,7 +22152,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22316,7 +22343,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22507,7 +22534,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22594,7 +22621,7 @@
         <v>0.57</v>
       </c>
       <c r="AS113">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT113">
         <v>0.5</v>
@@ -22698,7 +22725,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -23080,7 +23107,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23271,7 +23298,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23358,7 +23385,7 @@
         <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT117">
         <v>1.22</v>
@@ -23552,7 +23579,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -23653,7 +23680,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23743,7 +23770,7 @@
         <v>1.56</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU119">
         <v>1.76</v>
@@ -23844,7 +23871,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23931,7 +23958,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT120">
         <v>1.13</v>
@@ -24125,7 +24152,7 @@
         <v>1.25</v>
       </c>
       <c r="AT121">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU121">
         <v>1.67</v>
@@ -24177,6 +24204,1152 @@
       </c>
       <c r="BK121">
         <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5121107</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45092.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s">
+        <v>70</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>175</v>
+      </c>
+      <c r="P122" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>7</v>
+      </c>
+      <c r="S122">
+        <v>10</v>
+      </c>
+      <c r="T122">
+        <v>2.65</v>
+      </c>
+      <c r="U122">
+        <v>2.15</v>
+      </c>
+      <c r="V122">
+        <v>3.75</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>3</v>
+      </c>
+      <c r="Y122">
+        <v>2.62</v>
+      </c>
+      <c r="Z122">
+        <v>1.44</v>
+      </c>
+      <c r="AA122">
+        <v>6</v>
+      </c>
+      <c r="AB122">
+        <v>1.11</v>
+      </c>
+      <c r="AC122">
+        <v>2.14</v>
+      </c>
+      <c r="AD122">
+        <v>3.2</v>
+      </c>
+      <c r="AE122">
+        <v>3.1</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>9</v>
+      </c>
+      <c r="AH122">
+        <v>1.29</v>
+      </c>
+      <c r="AI122">
+        <v>3.5</v>
+      </c>
+      <c r="AJ122">
+        <v>1.82</v>
+      </c>
+      <c r="AK122">
+        <v>1.89</v>
+      </c>
+      <c r="AL122">
+        <v>1.65</v>
+      </c>
+      <c r="AM122">
+        <v>2.18</v>
+      </c>
+      <c r="AN122">
+        <v>1.33</v>
+      </c>
+      <c r="AO122">
+        <v>1.3</v>
+      </c>
+      <c r="AP122">
+        <v>1.67</v>
+      </c>
+      <c r="AQ122">
+        <v>2</v>
+      </c>
+      <c r="AR122">
+        <v>0.38</v>
+      </c>
+      <c r="AS122">
+        <v>1.88</v>
+      </c>
+      <c r="AT122">
+        <v>0.44</v>
+      </c>
+      <c r="AU122">
+        <v>1.78</v>
+      </c>
+      <c r="AV122">
+        <v>0.91</v>
+      </c>
+      <c r="AW122">
+        <v>2.69</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>11</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>9</v>
+      </c>
+      <c r="BI122">
+        <v>9</v>
+      </c>
+      <c r="BJ122">
+        <v>20</v>
+      </c>
+      <c r="BK122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5121105</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45094.77083333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>176</v>
+      </c>
+      <c r="P123" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q123">
+        <v>7</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>10</v>
+      </c>
+      <c r="T123">
+        <v>3.1</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>3.5</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>2.6</v>
+      </c>
+      <c r="Y123">
+        <v>3</v>
+      </c>
+      <c r="Z123">
+        <v>1.33</v>
+      </c>
+      <c r="AA123">
+        <v>8.1</v>
+      </c>
+      <c r="AB123">
+        <v>1.04</v>
+      </c>
+      <c r="AC123">
+        <v>2.15</v>
+      </c>
+      <c r="AD123">
+        <v>3.1</v>
+      </c>
+      <c r="AE123">
+        <v>3.2</v>
+      </c>
+      <c r="AF123">
+        <v>1.04</v>
+      </c>
+      <c r="AG123">
+        <v>7.7</v>
+      </c>
+      <c r="AH123">
+        <v>1.35</v>
+      </c>
+      <c r="AI123">
+        <v>2.78</v>
+      </c>
+      <c r="AJ123">
+        <v>2.2</v>
+      </c>
+      <c r="AK123">
+        <v>1.6</v>
+      </c>
+      <c r="AL123">
+        <v>1.92</v>
+      </c>
+      <c r="AM123">
+        <v>1.84</v>
+      </c>
+      <c r="AN123">
+        <v>1.36</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1.5</v>
+      </c>
+      <c r="AQ123">
+        <v>1.25</v>
+      </c>
+      <c r="AR123">
+        <v>1</v>
+      </c>
+      <c r="AS123">
+        <v>1.11</v>
+      </c>
+      <c r="AT123">
+        <v>1.29</v>
+      </c>
+      <c r="AU123">
+        <v>1.74</v>
+      </c>
+      <c r="AV123">
+        <v>1.38</v>
+      </c>
+      <c r="AW123">
+        <v>3.12</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>1.27</v>
+      </c>
+      <c r="BC123">
+        <v>1.5</v>
+      </c>
+      <c r="BD123">
+        <v>1.85</v>
+      </c>
+      <c r="BE123">
+        <v>2.4</v>
+      </c>
+      <c r="BF123">
+        <v>6</v>
+      </c>
+      <c r="BG123">
+        <v>7</v>
+      </c>
+      <c r="BH123">
+        <v>11</v>
+      </c>
+      <c r="BI123">
+        <v>5</v>
+      </c>
+      <c r="BJ123">
+        <v>17</v>
+      </c>
+      <c r="BK123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5121103</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45094.875</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>65</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>177</v>
+      </c>
+      <c r="P124" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>6</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+      <c r="T124">
+        <v>3.2</v>
+      </c>
+      <c r="U124">
+        <v>2</v>
+      </c>
+      <c r="V124">
+        <v>3.2</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>2.59</v>
+      </c>
+      <c r="Y124">
+        <v>3.04</v>
+      </c>
+      <c r="Z124">
+        <v>1.33</v>
+      </c>
+      <c r="AA124">
+        <v>7.7</v>
+      </c>
+      <c r="AB124">
+        <v>1.05</v>
+      </c>
+      <c r="AC124">
+        <v>1.85</v>
+      </c>
+      <c r="AD124">
+        <v>3.45</v>
+      </c>
+      <c r="AE124">
+        <v>3.55</v>
+      </c>
+      <c r="AF124">
+        <v>1.08</v>
+      </c>
+      <c r="AG124">
+        <v>7</v>
+      </c>
+      <c r="AH124">
+        <v>1.36</v>
+      </c>
+      <c r="AI124">
+        <v>3</v>
+      </c>
+      <c r="AJ124">
+        <v>1.95</v>
+      </c>
+      <c r="AK124">
+        <v>1.76</v>
+      </c>
+      <c r="AL124">
+        <v>1.82</v>
+      </c>
+      <c r="AM124">
+        <v>1.94</v>
+      </c>
+      <c r="AN124">
+        <v>1.44</v>
+      </c>
+      <c r="AO124">
+        <v>1.33</v>
+      </c>
+      <c r="AP124">
+        <v>1.44</v>
+      </c>
+      <c r="AQ124">
+        <v>2.14</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>2.25</v>
+      </c>
+      <c r="AT124">
+        <v>0.86</v>
+      </c>
+      <c r="AU124">
+        <v>1.75</v>
+      </c>
+      <c r="AV124">
+        <v>1.59</v>
+      </c>
+      <c r="AW124">
+        <v>3.34</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>7</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>13</v>
+      </c>
+      <c r="BI124">
+        <v>10</v>
+      </c>
+      <c r="BJ124">
+        <v>20</v>
+      </c>
+      <c r="BK124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>5121109</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45095.5625</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>67</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>178</v>
+      </c>
+      <c r="P125" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q125">
+        <v>6</v>
+      </c>
+      <c r="R125">
+        <v>8</v>
+      </c>
+      <c r="S125">
+        <v>14</v>
+      </c>
+      <c r="T125">
+        <v>2.05</v>
+      </c>
+      <c r="U125">
+        <v>2.15</v>
+      </c>
+      <c r="V125">
+        <v>5.8</v>
+      </c>
+      <c r="W125">
+        <v>1.43</v>
+      </c>
+      <c r="X125">
+        <v>2.62</v>
+      </c>
+      <c r="Y125">
+        <v>3.04</v>
+      </c>
+      <c r="Z125">
+        <v>1.33</v>
+      </c>
+      <c r="AA125">
+        <v>7.7</v>
+      </c>
+      <c r="AB125">
+        <v>1.05</v>
+      </c>
+      <c r="AC125">
+        <v>1.64</v>
+      </c>
+      <c r="AD125">
+        <v>3.5</v>
+      </c>
+      <c r="AE125">
+        <v>4.45</v>
+      </c>
+      <c r="AF125">
+        <v>1.08</v>
+      </c>
+      <c r="AG125">
+        <v>7</v>
+      </c>
+      <c r="AH125">
+        <v>1.36</v>
+      </c>
+      <c r="AI125">
+        <v>3</v>
+      </c>
+      <c r="AJ125">
+        <v>2.23</v>
+      </c>
+      <c r="AK125">
+        <v>1.58</v>
+      </c>
+      <c r="AL125">
+        <v>2.04</v>
+      </c>
+      <c r="AM125">
+        <v>1.74</v>
+      </c>
+      <c r="AN125">
+        <v>1.12</v>
+      </c>
+      <c r="AO125">
+        <v>1.29</v>
+      </c>
+      <c r="AP125">
+        <v>2.2</v>
+      </c>
+      <c r="AQ125">
+        <v>2.43</v>
+      </c>
+      <c r="AR125">
+        <v>0.67</v>
+      </c>
+      <c r="AS125">
+        <v>2.13</v>
+      </c>
+      <c r="AT125">
+        <v>1</v>
+      </c>
+      <c r="AU125">
+        <v>1.8</v>
+      </c>
+      <c r="AV125">
+        <v>1.15</v>
+      </c>
+      <c r="AW125">
+        <v>2.95</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>1.98</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>3</v>
+      </c>
+      <c r="BG125">
+        <v>5</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>12</v>
+      </c>
+      <c r="BJ125">
+        <v>11</v>
+      </c>
+      <c r="BK125">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5121106</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45095.66666666666</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126" t="s">
+        <v>68</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>179</v>
+      </c>
+      <c r="P126" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q126">
+        <v>10</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>12</v>
+      </c>
+      <c r="T126">
+        <v>2.3</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>4.6</v>
+      </c>
+      <c r="W126">
+        <v>1.41</v>
+      </c>
+      <c r="X126">
+        <v>2.69</v>
+      </c>
+      <c r="Y126">
+        <v>2.9</v>
+      </c>
+      <c r="Z126">
+        <v>1.36</v>
+      </c>
+      <c r="AA126">
+        <v>7.2</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>1.72</v>
+      </c>
+      <c r="AD126">
+        <v>3.35</v>
+      </c>
+      <c r="AE126">
+        <v>4.6</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>8</v>
+      </c>
+      <c r="AH126">
+        <v>1.33</v>
+      </c>
+      <c r="AI126">
+        <v>3.25</v>
+      </c>
+      <c r="AJ126">
+        <v>2.06</v>
+      </c>
+      <c r="AK126">
+        <v>1.67</v>
+      </c>
+      <c r="AL126">
+        <v>1.87</v>
+      </c>
+      <c r="AM126">
+        <v>1.89</v>
+      </c>
+      <c r="AN126">
+        <v>1.17</v>
+      </c>
+      <c r="AO126">
+        <v>1.29</v>
+      </c>
+      <c r="AP126">
+        <v>2.05</v>
+      </c>
+      <c r="AQ126">
+        <v>2.14</v>
+      </c>
+      <c r="AR126">
+        <v>0.86</v>
+      </c>
+      <c r="AS126">
+        <v>2.25</v>
+      </c>
+      <c r="AT126">
+        <v>0.75</v>
+      </c>
+      <c r="AU126">
+        <v>1.74</v>
+      </c>
+      <c r="AV126">
+        <v>1.2</v>
+      </c>
+      <c r="AW126">
+        <v>2.94</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>2</v>
+      </c>
+      <c r="BH126">
+        <v>12</v>
+      </c>
+      <c r="BI126">
+        <v>13</v>
+      </c>
+      <c r="BJ126">
+        <v>18</v>
+      </c>
+      <c r="BK126">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>5121102</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45095.77083333334</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>80</v>
+      </c>
+      <c r="H127" t="s">
+        <v>66</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>180</v>
+      </c>
+      <c r="P127" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>-1</v>
+      </c>
+      <c r="S127">
+        <v>-1</v>
+      </c>
+      <c r="T127">
+        <v>2.7</v>
+      </c>
+      <c r="U127">
+        <v>2.1</v>
+      </c>
+      <c r="V127">
+        <v>3.6</v>
+      </c>
+      <c r="W127">
+        <v>1.38</v>
+      </c>
+      <c r="X127">
+        <v>2.81</v>
+      </c>
+      <c r="Y127">
+        <v>2.77</v>
+      </c>
+      <c r="Z127">
+        <v>1.39</v>
+      </c>
+      <c r="AA127">
+        <v>6.7</v>
+      </c>
+      <c r="AB127">
+        <v>1.07</v>
+      </c>
+      <c r="AC127">
+        <v>2.12</v>
+      </c>
+      <c r="AD127">
+        <v>3.15</v>
+      </c>
+      <c r="AE127">
+        <v>3.25</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>8</v>
+      </c>
+      <c r="AH127">
+        <v>1.33</v>
+      </c>
+      <c r="AI127">
+        <v>3.25</v>
+      </c>
+      <c r="AJ127">
+        <v>1.98</v>
+      </c>
+      <c r="AK127">
+        <v>1.74</v>
+      </c>
+      <c r="AL127">
+        <v>1.75</v>
+      </c>
+      <c r="AM127">
+        <v>2.03</v>
+      </c>
+      <c r="AN127">
+        <v>1.33</v>
+      </c>
+      <c r="AO127">
+        <v>1.3</v>
+      </c>
+      <c r="AP127">
+        <v>1.65</v>
+      </c>
+      <c r="AQ127">
+        <v>2.5</v>
+      </c>
+      <c r="AR127">
+        <v>1.25</v>
+      </c>
+      <c r="AS127">
+        <v>2.14</v>
+      </c>
+      <c r="AT127">
+        <v>1.44</v>
+      </c>
+      <c r="AU127">
+        <v>1.83</v>
+      </c>
+      <c r="AV127">
+        <v>1.56</v>
+      </c>
+      <c r="AW127">
+        <v>3.39</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>-1</v>
+      </c>
+      <c r="BG127">
+        <v>-1</v>
+      </c>
+      <c r="BH127">
+        <v>-1</v>
+      </c>
+      <c r="BI127">
+        <v>-1</v>
+      </c>
+      <c r="BJ127">
+        <v>-1</v>
+      </c>
+      <c r="BK127">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,12 @@
     <t>['19', '68']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['33', '70', '84']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -728,6 +734,12 @@
   </si>
   <si>
     <t>['40', '53', '71']</t>
+  </si>
+  <si>
+    <t>['64', '78']</t>
+  </si>
+  <si>
+    <t>['25', '89']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1345,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -2479,7 +2491,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2670,7 +2682,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3052,7 +3064,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3142,7 +3154,7 @@
         <v>1.11</v>
       </c>
       <c r="AT11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3524,7 +3536,7 @@
         <v>1.88</v>
       </c>
       <c r="AT13">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3712,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT14">
         <v>0.44</v>
@@ -4007,7 +4019,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4389,7 +4401,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4580,7 +4592,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4771,7 +4783,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4962,7 +4974,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5153,7 +5165,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5344,7 +5356,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5535,7 +5547,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5625,7 +5637,7 @@
         <v>2.25</v>
       </c>
       <c r="AT24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU24">
         <v>1.98</v>
@@ -5813,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6198,7 +6210,7 @@
         <v>2.25</v>
       </c>
       <c r="AT27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>2.42</v>
@@ -6577,7 +6589,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT29">
         <v>1.13</v>
@@ -6872,7 +6884,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7445,7 +7457,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7636,7 +7648,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7726,7 +7738,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7827,7 +7839,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8105,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT37">
         <v>1.29</v>
@@ -8782,7 +8794,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9060,7 +9072,7 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
         <v>1.44</v>
@@ -9164,7 +9176,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9254,7 +9266,7 @@
         <v>1.88</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9355,7 +9367,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9737,7 +9749,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9827,7 +9839,7 @@
         <v>1.56</v>
       </c>
       <c r="AT46">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU46">
         <v>1.87</v>
@@ -9928,7 +9940,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10119,7 +10131,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10209,7 +10221,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU48">
         <v>1.98</v>
@@ -10397,7 +10409,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT49">
         <v>1.22</v>
@@ -10501,7 +10513,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -11074,7 +11086,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11647,7 +11659,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11838,7 +11850,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12307,7 +12319,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
         <v>0.5</v>
@@ -12692,7 +12704,7 @@
         <v>1.56</v>
       </c>
       <c r="AT61">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>1.97</v>
@@ -12984,7 +12996,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13453,7 +13465,7 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT65">
         <v>0.75</v>
@@ -13748,7 +13760,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13838,7 +13850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT67">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU67">
         <v>1.77</v>
@@ -13939,7 +13951,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14130,7 +14142,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14512,7 +14524,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14703,7 +14715,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14790,7 +14802,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
         <v>1.29</v>
@@ -15366,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.05</v>
@@ -16613,7 +16625,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16995,7 +17007,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17377,7 +17389,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17568,7 +17580,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17655,7 +17667,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT87">
         <v>1.22</v>
@@ -17759,7 +17771,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17849,7 +17861,7 @@
         <v>1.11</v>
       </c>
       <c r="AT88">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18231,7 +18243,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.7</v>
@@ -18332,7 +18344,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18714,7 +18726,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18905,7 +18917,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18992,7 +19004,7 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19096,7 +19108,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19287,7 +19299,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19478,7 +19490,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19669,7 +19681,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19950,7 +19962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20242,7 +20254,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20433,7 +20445,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20902,7 +20914,7 @@
         <v>0.33</v>
       </c>
       <c r="AS104">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
         <v>0.44</v>
@@ -21006,7 +21018,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21197,7 +21209,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21388,7 +21400,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21666,7 +21678,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.71</v>
+        <v>2.38</v>
       </c>
       <c r="AT108">
         <v>0.86</v>
@@ -21961,7 +21973,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22152,7 +22164,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22343,7 +22355,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22534,7 +22546,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22725,7 +22737,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -22815,7 +22827,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU114">
         <v>1.24</v>
@@ -23006,7 +23018,7 @@
         <v>2.33</v>
       </c>
       <c r="AT115">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -23107,7 +23119,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23194,7 +23206,7 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT116">
         <v>1.38</v>
@@ -23298,7 +23310,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23680,7 +23692,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23871,7 +23883,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24149,7 +24161,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -24253,7 +24265,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24444,7 +24456,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24826,7 +24838,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25208,16 +25220,16 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S127">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T127">
         <v>2.7</v>
@@ -25334,22 +25346,404 @@
         <v>0</v>
       </c>
       <c r="BF127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG127">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH127">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BI127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ127">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BK127">
-        <v>-1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5121104</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45095.875</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>181</v>
+      </c>
+      <c r="P128" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>1</v>
+      </c>
+      <c r="S128">
+        <v>3</v>
+      </c>
+      <c r="T128">
+        <v>2.7</v>
+      </c>
+      <c r="U128">
+        <v>2.05</v>
+      </c>
+      <c r="V128">
+        <v>3.75</v>
+      </c>
+      <c r="W128">
+        <v>1.41</v>
+      </c>
+      <c r="X128">
+        <v>2.7</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>6.5</v>
+      </c>
+      <c r="AB128">
+        <v>1.1</v>
+      </c>
+      <c r="AC128">
+        <v>2.02</v>
+      </c>
+      <c r="AD128">
+        <v>3.15</v>
+      </c>
+      <c r="AE128">
+        <v>3.55</v>
+      </c>
+      <c r="AF128">
+        <v>1.06</v>
+      </c>
+      <c r="AG128">
+        <v>8</v>
+      </c>
+      <c r="AH128">
+        <v>1.33</v>
+      </c>
+      <c r="AI128">
+        <v>3.1</v>
+      </c>
+      <c r="AJ128">
+        <v>2.1</v>
+      </c>
+      <c r="AK128">
+        <v>1.65</v>
+      </c>
+      <c r="AL128">
+        <v>1.8</v>
+      </c>
+      <c r="AM128">
+        <v>1.95</v>
+      </c>
+      <c r="AN128">
+        <v>1.25</v>
+      </c>
+      <c r="AO128">
+        <v>1.25</v>
+      </c>
+      <c r="AP128">
+        <v>1.63</v>
+      </c>
+      <c r="AQ128">
+        <v>2.71</v>
+      </c>
+      <c r="AR128">
+        <v>1.44</v>
+      </c>
+      <c r="AS128">
+        <v>2.38</v>
+      </c>
+      <c r="AT128">
+        <v>1.6</v>
+      </c>
+      <c r="AU128">
+        <v>1.73</v>
+      </c>
+      <c r="AV128">
+        <v>1.65</v>
+      </c>
+      <c r="AW128">
+        <v>3.38</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>1.8</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>4</v>
+      </c>
+      <c r="BG128">
+        <v>10</v>
+      </c>
+      <c r="BH128">
+        <v>6</v>
+      </c>
+      <c r="BI128">
+        <v>11</v>
+      </c>
+      <c r="BJ128">
+        <v>10</v>
+      </c>
+      <c r="BK128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5121108</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45096.83333333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>78</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>182</v>
+      </c>
+      <c r="P129" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q129">
+        <v>8</v>
+      </c>
+      <c r="R129">
+        <v>7</v>
+      </c>
+      <c r="S129">
+        <v>15</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>2.05</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>2.75</v>
+      </c>
+      <c r="Y129">
+        <v>2.75</v>
+      </c>
+      <c r="Z129">
+        <v>1.4</v>
+      </c>
+      <c r="AA129">
+        <v>7</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>2.47</v>
+      </c>
+      <c r="AD129">
+        <v>3.05</v>
+      </c>
+      <c r="AE129">
+        <v>2.75</v>
+      </c>
+      <c r="AF129">
+        <v>1.07</v>
+      </c>
+      <c r="AG129">
+        <v>7.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.33</v>
+      </c>
+      <c r="AI129">
+        <v>3.25</v>
+      </c>
+      <c r="AJ129">
+        <v>2.06</v>
+      </c>
+      <c r="AK129">
+        <v>1.69</v>
+      </c>
+      <c r="AL129">
+        <v>1.8</v>
+      </c>
+      <c r="AM129">
+        <v>1.91</v>
+      </c>
+      <c r="AN129">
+        <v>1.4</v>
+      </c>
+      <c r="AO129">
+        <v>1.33</v>
+      </c>
+      <c r="AP129">
+        <v>1.5</v>
+      </c>
+      <c r="AQ129">
+        <v>1.25</v>
+      </c>
+      <c r="AR129">
+        <v>1.14</v>
+      </c>
+      <c r="AS129">
+        <v>1.44</v>
+      </c>
+      <c r="AT129">
+        <v>1</v>
+      </c>
+      <c r="AU129">
+        <v>1.6</v>
+      </c>
+      <c r="AV129">
+        <v>1.47</v>
+      </c>
+      <c r="AW129">
+        <v>3.07</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>10</v>
+      </c>
+      <c r="BG129">
+        <v>5</v>
+      </c>
+      <c r="BH129">
+        <v>10</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>20</v>
+      </c>
+      <c r="BK129">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,24 @@
     <t>['33', '70', '84']</t>
   </si>
   <si>
+    <t>['11', '34']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['24', '57']</t>
+  </si>
+  <si>
+    <t>['20', '61']</t>
+  </si>
+  <si>
+    <t>['1', '86']</t>
+  </si>
+  <si>
+    <t>['89', '90+2']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -740,6 +758,12 @@
   </si>
   <si>
     <t>['25', '89']</t>
+  </si>
+  <si>
+    <t>['89', '90+3']</t>
+  </si>
+  <si>
+    <t>['59', '71']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1369,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1435,7 +1459,7 @@
         <v>2.33</v>
       </c>
       <c r="AT2">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1623,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT3">
         <v>1.22</v>
@@ -1814,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2005,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT5">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2196,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2390,7 +2414,7 @@
         <v>1.71</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2491,7 +2515,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2578,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT8">
         <v>1.38</v>
@@ -2682,7 +2706,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3064,7 +3088,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3915,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -4019,7 +4043,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4106,10 +4130,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT16">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4297,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT17">
         <v>1</v>
@@ -4401,7 +4425,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4488,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT18">
         <v>1.38</v>
@@ -4592,7 +4616,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4682,7 +4706,7 @@
         <v>1.11</v>
       </c>
       <c r="AT19">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU19">
         <v>1.87</v>
@@ -4783,7 +4807,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4873,7 +4897,7 @@
         <v>2.33</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU20">
         <v>2.07</v>
@@ -4974,7 +4998,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5064,7 +5088,7 @@
         <v>1.71</v>
       </c>
       <c r="AT21">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU21">
         <v>2.35</v>
@@ -5165,7 +5189,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5252,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU22">
         <v>1.2</v>
@@ -5356,7 +5380,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5443,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
         <v>0.75</v>
@@ -5547,7 +5571,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5828,7 +5852,7 @@
         <v>1.44</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6016,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT26">
         <v>0.44</v>
@@ -6592,7 +6616,7 @@
         <v>2.38</v>
       </c>
       <c r="AT29">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU29">
         <v>2.17</v>
@@ -6780,10 +6804,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT30">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU30">
         <v>0.95</v>
@@ -6884,7 +6908,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6971,10 +6995,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT31">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU31">
         <v>1.25</v>
@@ -7165,7 +7189,7 @@
         <v>2.13</v>
       </c>
       <c r="AT32">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU32">
         <v>2.19</v>
@@ -7353,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT33">
         <v>1.22</v>
@@ -7457,7 +7481,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7544,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -7648,7 +7672,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7839,7 +7863,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7929,7 +7953,7 @@
         <v>2.33</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU36">
         <v>1.91</v>
@@ -8311,7 +8335,7 @@
         <v>1.11</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU38">
         <v>1.85</v>
@@ -8502,7 +8526,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU39">
         <v>2.2</v>
@@ -8690,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT40">
         <v>0.75</v>
@@ -8794,7 +8818,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8884,7 +8908,7 @@
         <v>1.71</v>
       </c>
       <c r="AT41">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU41">
         <v>1.8</v>
@@ -9176,7 +9200,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9367,7 +9391,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9454,10 +9478,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU44">
         <v>1.12</v>
@@ -9749,7 +9773,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9836,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT46">
         <v>1.6</v>
@@ -9940,7 +9964,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10027,7 +10051,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -10131,7 +10155,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10218,7 +10242,7 @@
         <v>0.75</v>
       </c>
       <c r="AS48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT48">
         <v>1.6</v>
@@ -10513,7 +10537,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10603,7 +10627,7 @@
         <v>2.13</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU50">
         <v>1.94</v>
@@ -11086,7 +11110,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11173,10 +11197,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT53">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU53">
         <v>1.61</v>
@@ -11367,7 +11391,7 @@
         <v>2.25</v>
       </c>
       <c r="AT54">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU54">
         <v>1.87</v>
@@ -11555,10 +11579,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU55">
         <v>1.75</v>
@@ -11659,7 +11683,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11850,7 +11874,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11937,7 +11961,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT57">
         <v>1.44</v>
@@ -12128,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT58">
         <v>1.38</v>
@@ -12322,7 +12346,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12510,10 +12534,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -12701,7 +12725,7 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12892,10 +12916,10 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT62">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU62">
         <v>1.65</v>
@@ -12996,7 +13020,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13086,7 +13110,7 @@
         <v>1.71</v>
       </c>
       <c r="AT63">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU63">
         <v>1.65</v>
@@ -13277,7 +13301,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU64">
         <v>1.94</v>
@@ -13760,7 +13784,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13847,7 +13871,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT67">
         <v>1.6</v>
@@ -13951,7 +13975,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14038,10 +14062,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT68">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU68">
         <v>1.09</v>
@@ -14142,7 +14166,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14232,7 +14256,7 @@
         <v>2.13</v>
       </c>
       <c r="AT69">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU69">
         <v>1.89</v>
@@ -14423,7 +14447,7 @@
         <v>1.11</v>
       </c>
       <c r="AT70">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14524,7 +14548,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14611,7 +14635,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT71">
         <v>0.44</v>
@@ -14715,7 +14739,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14993,10 +15017,10 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU73">
         <v>1.79</v>
@@ -15184,10 +15208,10 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15375,7 +15399,7 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15566,7 +15590,7 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT76">
         <v>0.44</v>
@@ -15948,10 +15972,10 @@
         <v>1.8</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT78">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16333,7 +16357,7 @@
         <v>2.25</v>
       </c>
       <c r="AT80">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -16521,7 +16545,7 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT81">
         <v>0.44</v>
@@ -16625,7 +16649,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16712,10 +16736,10 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT82">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU82">
         <v>1.74</v>
@@ -16903,7 +16927,7 @@
         <v>1.4</v>
       </c>
       <c r="AS83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT83">
         <v>1.38</v>
@@ -17007,7 +17031,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17097,7 +17121,7 @@
         <v>2.25</v>
       </c>
       <c r="AT84">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU84">
         <v>1.77</v>
@@ -17389,7 +17413,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17580,7 +17604,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17771,7 +17795,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18344,7 +18368,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18434,7 +18458,7 @@
         <v>2.13</v>
       </c>
       <c r="AT91">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU91">
         <v>1.99</v>
@@ -18726,7 +18750,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18813,7 +18837,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT93">
         <v>1.29</v>
@@ -18917,7 +18941,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19007,7 +19031,7 @@
         <v>2.38</v>
       </c>
       <c r="AT94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19108,7 +19132,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19195,10 +19219,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT95">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU95">
         <v>2.22</v>
@@ -19299,7 +19323,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19386,10 +19410,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU96">
         <v>1.6</v>
@@ -19490,7 +19514,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19681,7 +19705,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19768,7 +19792,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT98">
         <v>1.22</v>
@@ -19959,7 +19983,7 @@
         <v>1.71</v>
       </c>
       <c r="AS99">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT99">
         <v>1.6</v>
@@ -20153,7 +20177,7 @@
         <v>2.33</v>
       </c>
       <c r="AT100">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20254,7 +20278,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20341,7 +20365,7 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
         <v>1.44</v>
@@ -20445,7 +20469,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20532,10 +20556,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT102">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -20726,7 +20750,7 @@
         <v>1.11</v>
       </c>
       <c r="AT103">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU103">
         <v>1.66</v>
@@ -21018,7 +21042,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21209,7 +21233,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21296,7 +21320,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT106">
         <v>0.75</v>
@@ -21400,7 +21424,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21681,7 +21705,7 @@
         <v>2.38</v>
       </c>
       <c r="AT108">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU108">
         <v>1.8</v>
@@ -21869,10 +21893,10 @@
         <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU109">
         <v>2.4</v>
@@ -21973,7 +21997,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22060,10 +22084,10 @@
         <v>0.43</v>
       </c>
       <c r="AS110">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT110">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU110">
         <v>1.69</v>
@@ -22164,7 +22188,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22251,10 +22275,10 @@
         <v>0</v>
       </c>
       <c r="AS111">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT111">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -22355,7 +22379,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22445,7 +22469,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22546,7 +22570,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22636,7 +22660,7 @@
         <v>2.25</v>
       </c>
       <c r="AT113">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU113">
         <v>1.66</v>
@@ -22737,7 +22761,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -22824,7 +22848,7 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT114">
         <v>1.6</v>
@@ -23119,7 +23143,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23310,7 +23334,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23588,7 +23612,7 @@
         <v>0.29</v>
       </c>
       <c r="AS118">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT118">
         <v>0.44</v>
@@ -23692,7 +23716,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23779,7 +23803,7 @@
         <v>1.29</v>
       </c>
       <c r="AS119">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT119">
         <v>1.44</v>
@@ -23883,7 +23907,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -23973,7 +23997,7 @@
         <v>1.11</v>
       </c>
       <c r="AT120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24265,7 +24289,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24456,7 +24480,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24737,7 +24761,7 @@
         <v>2.25</v>
       </c>
       <c r="AT124">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU124">
         <v>1.75</v>
@@ -24838,7 +24862,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25220,7 +25244,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25307,7 +25331,7 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT127">
         <v>1.44</v>
@@ -25411,7 +25435,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25602,7 +25626,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25744,6 +25768,1343 @@
       </c>
       <c r="BK129">
         <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5121110</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45114.89583333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>66</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>183</v>
+      </c>
+      <c r="P130" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q130">
+        <v>7</v>
+      </c>
+      <c r="R130">
+        <v>3</v>
+      </c>
+      <c r="S130">
+        <v>10</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>2.1</v>
+      </c>
+      <c r="V130">
+        <v>5</v>
+      </c>
+      <c r="W130">
+        <v>1.38</v>
+      </c>
+      <c r="X130">
+        <v>2.81</v>
+      </c>
+      <c r="Y130">
+        <v>2.77</v>
+      </c>
+      <c r="Z130">
+        <v>1.39</v>
+      </c>
+      <c r="AA130">
+        <v>6.4</v>
+      </c>
+      <c r="AB130">
+        <v>1.08</v>
+      </c>
+      <c r="AC130">
+        <v>1.8</v>
+      </c>
+      <c r="AD130">
+        <v>3.5</v>
+      </c>
+      <c r="AE130">
+        <v>3.9</v>
+      </c>
+      <c r="AF130">
+        <v>1.02</v>
+      </c>
+      <c r="AG130">
+        <v>9</v>
+      </c>
+      <c r="AH130">
+        <v>1.28</v>
+      </c>
+      <c r="AI130">
+        <v>3.2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.85</v>
+      </c>
+      <c r="AK130">
+        <v>1.95</v>
+      </c>
+      <c r="AL130">
+        <v>1.82</v>
+      </c>
+      <c r="AM130">
+        <v>1.84</v>
+      </c>
+      <c r="AN130">
+        <v>1.17</v>
+      </c>
+      <c r="AO130">
+        <v>1.24</v>
+      </c>
+      <c r="AP130">
+        <v>1.98</v>
+      </c>
+      <c r="AQ130">
+        <v>2</v>
+      </c>
+      <c r="AR130">
+        <v>0.38</v>
+      </c>
+      <c r="AS130">
+        <v>2.13</v>
+      </c>
+      <c r="AT130">
+        <v>0.33</v>
+      </c>
+      <c r="AU130">
+        <v>2.4</v>
+      </c>
+      <c r="AV130">
+        <v>1.55</v>
+      </c>
+      <c r="AW130">
+        <v>3.95</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>1.58</v>
+      </c>
+      <c r="BD130">
+        <v>2</v>
+      </c>
+      <c r="BE130">
+        <v>2.41</v>
+      </c>
+      <c r="BF130">
+        <v>7</v>
+      </c>
+      <c r="BG130">
+        <v>2</v>
+      </c>
+      <c r="BH130">
+        <v>8</v>
+      </c>
+      <c r="BI130">
+        <v>7</v>
+      </c>
+      <c r="BJ130">
+        <v>15</v>
+      </c>
+      <c r="BK130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5121116</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>67</v>
+      </c>
+      <c r="H131" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>184</v>
+      </c>
+      <c r="P131" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q131">
+        <v>6</v>
+      </c>
+      <c r="R131">
+        <v>5</v>
+      </c>
+      <c r="S131">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>3.1</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>3.75</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>2.45</v>
+      </c>
+      <c r="Y131">
+        <v>3.15</v>
+      </c>
+      <c r="Z131">
+        <v>1.29</v>
+      </c>
+      <c r="AA131">
+        <v>7.3</v>
+      </c>
+      <c r="AB131">
+        <v>1.06</v>
+      </c>
+      <c r="AC131">
+        <v>2.31</v>
+      </c>
+      <c r="AD131">
+        <v>2.72</v>
+      </c>
+      <c r="AE131">
+        <v>2.94</v>
+      </c>
+      <c r="AF131">
+        <v>1.08</v>
+      </c>
+      <c r="AG131">
+        <v>7.95</v>
+      </c>
+      <c r="AH131">
+        <v>1.37</v>
+      </c>
+      <c r="AI131">
+        <v>2.7</v>
+      </c>
+      <c r="AJ131">
+        <v>2.24</v>
+      </c>
+      <c r="AK131">
+        <v>1.58</v>
+      </c>
+      <c r="AL131">
+        <v>1.9</v>
+      </c>
+      <c r="AM131">
+        <v>1.8</v>
+      </c>
+      <c r="AN131">
+        <v>1.29</v>
+      </c>
+      <c r="AO131">
+        <v>1.3</v>
+      </c>
+      <c r="AP131">
+        <v>1.53</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AS131">
+        <v>0.9</v>
+      </c>
+      <c r="AT131">
+        <v>0.38</v>
+      </c>
+      <c r="AU131">
+        <v>1.27</v>
+      </c>
+      <c r="AV131">
+        <v>1.56</v>
+      </c>
+      <c r="AW131">
+        <v>2.83</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>1.61</v>
+      </c>
+      <c r="BC131">
+        <v>1.7</v>
+      </c>
+      <c r="BD131">
+        <v>2.1</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>8</v>
+      </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
+      <c r="BJ131">
+        <v>11</v>
+      </c>
+      <c r="BK131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5121114</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>83</v>
+      </c>
+      <c r="P132" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q132">
+        <v>6</v>
+      </c>
+      <c r="R132">
+        <v>4</v>
+      </c>
+      <c r="S132">
+        <v>10</v>
+      </c>
+      <c r="T132">
+        <v>2.63</v>
+      </c>
+      <c r="U132">
+        <v>2.05</v>
+      </c>
+      <c r="V132">
+        <v>4</v>
+      </c>
+      <c r="W132">
+        <v>1.42</v>
+      </c>
+      <c r="X132">
+        <v>2.7</v>
+      </c>
+      <c r="Y132">
+        <v>2.74</v>
+      </c>
+      <c r="Z132">
+        <v>1.36</v>
+      </c>
+      <c r="AA132">
+        <v>6.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.08</v>
+      </c>
+      <c r="AC132">
+        <v>2.04</v>
+      </c>
+      <c r="AD132">
+        <v>2.95</v>
+      </c>
+      <c r="AE132">
+        <v>3.22</v>
+      </c>
+      <c r="AF132">
+        <v>1.05</v>
+      </c>
+      <c r="AG132">
+        <v>10.25</v>
+      </c>
+      <c r="AH132">
+        <v>1.29</v>
+      </c>
+      <c r="AI132">
+        <v>3.15</v>
+      </c>
+      <c r="AJ132">
+        <v>1.89</v>
+      </c>
+      <c r="AK132">
+        <v>1.72</v>
+      </c>
+      <c r="AL132">
+        <v>1.75</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>1.25</v>
+      </c>
+      <c r="AO132">
+        <v>1.29</v>
+      </c>
+      <c r="AP132">
+        <v>1.67</v>
+      </c>
+      <c r="AQ132">
+        <v>1.5</v>
+      </c>
+      <c r="AR132">
+        <v>0.5</v>
+      </c>
+      <c r="AS132">
+        <v>1.43</v>
+      </c>
+      <c r="AT132">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU132">
+        <v>1.66</v>
+      </c>
+      <c r="AV132">
+        <v>1.7</v>
+      </c>
+      <c r="AW132">
+        <v>3.36</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>7</v>
+      </c>
+      <c r="BI132">
+        <v>10</v>
+      </c>
+      <c r="BJ132">
+        <v>13</v>
+      </c>
+      <c r="BK132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5121112</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45115.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>69</v>
+      </c>
+      <c r="H133" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>185</v>
+      </c>
+      <c r="P133" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q133">
+        <v>5</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>3.4</v>
+      </c>
+      <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
+        <v>3.2</v>
+      </c>
+      <c r="W133">
+        <v>1.42</v>
+      </c>
+      <c r="X133">
+        <v>2.65</v>
+      </c>
+      <c r="Y133">
+        <v>2.78</v>
+      </c>
+      <c r="Z133">
+        <v>1.35</v>
+      </c>
+      <c r="AA133">
+        <v>6.85</v>
+      </c>
+      <c r="AB133">
+        <v>1.07</v>
+      </c>
+      <c r="AC133">
+        <v>2.54</v>
+      </c>
+      <c r="AD133">
+        <v>2.74</v>
+      </c>
+      <c r="AE133">
+        <v>2.62</v>
+      </c>
+      <c r="AF133">
+        <v>1.06</v>
+      </c>
+      <c r="AG133">
+        <v>9.4</v>
+      </c>
+      <c r="AH133">
+        <v>1.29</v>
+      </c>
+      <c r="AI133">
+        <v>3.15</v>
+      </c>
+      <c r="AJ133">
+        <v>2.07</v>
+      </c>
+      <c r="AK133">
+        <v>1.74</v>
+      </c>
+      <c r="AL133">
+        <v>1.72</v>
+      </c>
+      <c r="AM133">
+        <v>2</v>
+      </c>
+      <c r="AN133">
+        <v>1.44</v>
+      </c>
+      <c r="AO133">
+        <v>1.3</v>
+      </c>
+      <c r="AP133">
+        <v>1.36</v>
+      </c>
+      <c r="AQ133">
+        <v>1.56</v>
+      </c>
+      <c r="AR133">
+        <v>1.63</v>
+      </c>
+      <c r="AS133">
+        <v>1.7</v>
+      </c>
+      <c r="AT133">
+        <v>1.44</v>
+      </c>
+      <c r="AU133">
+        <v>1.82</v>
+      </c>
+      <c r="AV133">
+        <v>1.55</v>
+      </c>
+      <c r="AW133">
+        <v>3.37</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>1.48</v>
+      </c>
+      <c r="BB133">
+        <v>1.9</v>
+      </c>
+      <c r="BC133">
+        <v>2.29</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>7</v>
+      </c>
+      <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
+        <v>11</v>
+      </c>
+      <c r="BI133">
+        <v>8</v>
+      </c>
+      <c r="BJ133">
+        <v>18</v>
+      </c>
+      <c r="BK133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5120991</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45116.5625</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s">
+        <v>65</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>186</v>
+      </c>
+      <c r="P134" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+      <c r="R134">
+        <v>9</v>
+      </c>
+      <c r="S134">
+        <v>11</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>2.1</v>
+      </c>
+      <c r="V134">
+        <v>4.33</v>
+      </c>
+      <c r="W134">
+        <v>1.4</v>
+      </c>
+      <c r="X134">
+        <v>2.75</v>
+      </c>
+      <c r="Y134">
+        <v>2.7</v>
+      </c>
+      <c r="Z134">
+        <v>1.37</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.08</v>
+      </c>
+      <c r="AC134">
+        <v>1.8</v>
+      </c>
+      <c r="AD134">
+        <v>3.22</v>
+      </c>
+      <c r="AE134">
+        <v>4.12</v>
+      </c>
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
+        <v>10.75</v>
+      </c>
+      <c r="AH134">
+        <v>1.27</v>
+      </c>
+      <c r="AI134">
+        <v>3.3</v>
+      </c>
+      <c r="AJ134">
+        <v>1.9</v>
+      </c>
+      <c r="AK134">
+        <v>1.8</v>
+      </c>
+      <c r="AL134">
+        <v>1.8</v>
+      </c>
+      <c r="AM134">
+        <v>1.9</v>
+      </c>
+      <c r="AN134">
+        <v>1.2</v>
+      </c>
+      <c r="AO134">
+        <v>1.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.8</v>
+      </c>
+      <c r="AQ134">
+        <v>2.14</v>
+      </c>
+      <c r="AR134">
+        <v>0.86</v>
+      </c>
+      <c r="AS134">
+        <v>2.25</v>
+      </c>
+      <c r="AT134">
+        <v>0.75</v>
+      </c>
+      <c r="AU134">
+        <v>1.85</v>
+      </c>
+      <c r="AV134">
+        <v>1.63</v>
+      </c>
+      <c r="AW134">
+        <v>3.48</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>1.65</v>
+      </c>
+      <c r="BC134">
+        <v>2.04</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>8</v>
+      </c>
+      <c r="BG134">
+        <v>4</v>
+      </c>
+      <c r="BH134">
+        <v>9</v>
+      </c>
+      <c r="BI134">
+        <v>11</v>
+      </c>
+      <c r="BJ134">
+        <v>17</v>
+      </c>
+      <c r="BK134">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5121117</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45116.5625</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>68</v>
+      </c>
+      <c r="H135" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>187</v>
+      </c>
+      <c r="P135" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q135">
+        <v>9</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>12</v>
+      </c>
+      <c r="T135">
+        <v>2.88</v>
+      </c>
+      <c r="U135">
+        <v>1.95</v>
+      </c>
+      <c r="V135">
+        <v>4</v>
+      </c>
+      <c r="W135">
+        <v>1.5</v>
+      </c>
+      <c r="X135">
+        <v>2.45</v>
+      </c>
+      <c r="Y135">
+        <v>3.15</v>
+      </c>
+      <c r="Z135">
+        <v>1.29</v>
+      </c>
+      <c r="AA135">
+        <v>7.3</v>
+      </c>
+      <c r="AB135">
+        <v>1.06</v>
+      </c>
+      <c r="AC135">
+        <v>1.95</v>
+      </c>
+      <c r="AD135">
+        <v>3</v>
+      </c>
+      <c r="AE135">
+        <v>3.75</v>
+      </c>
+      <c r="AF135">
+        <v>1.08</v>
+      </c>
+      <c r="AG135">
+        <v>8.1</v>
+      </c>
+      <c r="AH135">
+        <v>1.38</v>
+      </c>
+      <c r="AI135">
+        <v>2.66</v>
+      </c>
+      <c r="AJ135">
+        <v>2.37</v>
+      </c>
+      <c r="AK135">
+        <v>1.53</v>
+      </c>
+      <c r="AL135">
+        <v>1.95</v>
+      </c>
+      <c r="AM135">
+        <v>1.75</v>
+      </c>
+      <c r="AN135">
+        <v>1.29</v>
+      </c>
+      <c r="AO135">
+        <v>1.29</v>
+      </c>
+      <c r="AP135">
+        <v>1.6</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.13</v>
+      </c>
+      <c r="AS135">
+        <v>1.44</v>
+      </c>
+      <c r="AT135">
+        <v>1.11</v>
+      </c>
+      <c r="AU135">
+        <v>1.97</v>
+      </c>
+      <c r="AV135">
+        <v>1.24</v>
+      </c>
+      <c r="AW135">
+        <v>3.21</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>1.53</v>
+      </c>
+      <c r="BD135">
+        <v>1.95</v>
+      </c>
+      <c r="BE135">
+        <v>2.31</v>
+      </c>
+      <c r="BF135">
+        <v>8</v>
+      </c>
+      <c r="BG135">
+        <v>9</v>
+      </c>
+      <c r="BH135">
+        <v>12</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>20</v>
+      </c>
+      <c r="BK135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5121115</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45116.66666666666</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>188</v>
+      </c>
+      <c r="P136" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q136">
+        <v>7</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>11</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+      <c r="V136">
+        <v>4</v>
+      </c>
+      <c r="W136">
+        <v>1.42</v>
+      </c>
+      <c r="X136">
+        <v>2.6</v>
+      </c>
+      <c r="Y136">
+        <v>2.82</v>
+      </c>
+      <c r="Z136">
+        <v>1.34</v>
+      </c>
+      <c r="AA136">
+        <v>6.85</v>
+      </c>
+      <c r="AB136">
+        <v>1.07</v>
+      </c>
+      <c r="AC136">
+        <v>2.05</v>
+      </c>
+      <c r="AD136">
+        <v>2.95</v>
+      </c>
+      <c r="AE136">
+        <v>3.65</v>
+      </c>
+      <c r="AF136">
+        <v>1.06</v>
+      </c>
+      <c r="AG136">
+        <v>9.25</v>
+      </c>
+      <c r="AH136">
+        <v>1.3</v>
+      </c>
+      <c r="AI136">
+        <v>3</v>
+      </c>
+      <c r="AJ136">
+        <v>2.3</v>
+      </c>
+      <c r="AK136">
+        <v>1.62</v>
+      </c>
+      <c r="AL136">
+        <v>1.8</v>
+      </c>
+      <c r="AM136">
+        <v>1.9</v>
+      </c>
+      <c r="AN136">
+        <v>1.25</v>
+      </c>
+      <c r="AO136">
+        <v>1.3</v>
+      </c>
+      <c r="AP136">
+        <v>1.62</v>
+      </c>
+      <c r="AQ136">
+        <v>1.25</v>
+      </c>
+      <c r="AR136">
+        <v>1</v>
+      </c>
+      <c r="AS136">
+        <v>1.44</v>
+      </c>
+      <c r="AT136">
+        <v>0.88</v>
+      </c>
+      <c r="AU136">
+        <v>1.86</v>
+      </c>
+      <c r="AV136">
+        <v>1.49</v>
+      </c>
+      <c r="AW136">
+        <v>3.35</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>1.55</v>
+      </c>
+      <c r="BD136">
+        <v>1.93</v>
+      </c>
+      <c r="BE136">
+        <v>2.34</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>6</v>
+      </c>
+      <c r="BI136">
+        <v>9</v>
+      </c>
+      <c r="BJ136">
+        <v>11</v>
+      </c>
+      <c r="BK136">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
